--- a/exam.xlsx
+++ b/exam.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="837" firstSheet="3" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="삭제 예정" sheetId="13" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="QNX porting" sheetId="9" r:id="rId12"/>
     <sheet name="new branch" sheetId="14" r:id="rId13"/>
     <sheet name="dlt-viewer" sheetId="15" r:id="rId14"/>
+    <sheet name="CodeReview message" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">용어!$C$5:$C$39</definedName>
@@ -1377,7 +1378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2149" uniqueCount="1779">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2819" uniqueCount="2295">
   <si>
     <t>RVM</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11737,11 +11738,2029 @@
     <t>export SEC_CAMERA_DEBUG=3</t>
   </si>
   <si>
-    <t>dlt-receive -a localhost | grep " CAMD"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time build-qnx-cluster all</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMakeLists.txt 작성 중 오류와 원인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>not found "json.hpp"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>include_directories += $ENV{QNX_BUILD_ROOT_DIR}/ccos/ccosapi/hcommon/include</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    $ENV{QNX_BUILD_ROOT_DIR}/install/$ENV{CPUVARDIR}/ccos/lib</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LINK_DIRECTORIES(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순 메모입니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#target_link_libraries(${CCAMERASERVICE_NAME} PUBLIC socket mq  hivc)</t>
+  </si>
+  <si>
+    <t>cp -p /camtest/commonapi.ini /etc/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp -p vsomeipd.json /etc/vsomeip/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp -p /camtest/lge-config.j /usr/lib/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QNX image flash 후 한번만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp -p /camtest/vsomeipd.json /etc/vsomeip/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tar cvf 4qnx.tar lge-config.j vsomeipd.json libCommonAPI.so commonapi.ini vcamera-service-startup.sh</t>
+  </si>
+  <si>
+    <t>필요한 파일을 PC 에서 압축</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cp -p /camtest/vcamera-service-startup.sh /apps/nativeservice/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo 0 &gt; /apps/nativeservice/ccamera/cam_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo P &gt; /apps/nativeservice/ccamera/gear_RP.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apps/nativeservice/vcamera-service-startup.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod +x /camtest/vcamera-service-startup.sh</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>echo R &gt; /apps/nativeservice/ccamera/gear_RP.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chmod +x /camtest/ccameraservice &amp;&amp; cp -p /camtest/ccameraservice /apps/nativeservice/.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/apps/nativeservice/ccameraservice &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dlt-receive -a localhost | grep " CAMD" &amp;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Patch Set 7:</t>
+  </si>
+  <si>
+    <t>[ AI Code-Review results with GEMINI ]</t>
+  </si>
+  <si>
+    <t>[Filename] modules/camera/include/CameraDeviceManager.h</t>
+  </si>
+  <si>
+    <t>[Security] No obvious security vulnerabilities are present in this code snippet.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/can/include/SVMCanData.h</t>
+  </si>
+  <si>
+    <t>[Code Quality]</t>
+  </si>
+  <si>
+    <t>The large number of variables in `CanDataHS` (lines 21-182) makes the structure unwieldy and difficult to understand. Consider breaking it into smaller, more logical structures.</t>
+  </si>
+  <si>
+    <t>No code duplication identified.</t>
+  </si>
+  <si>
+    <t>[Functionality]</t>
+  </si>
+  <si>
+    <t>No incorrect format specifiers are present in the header file itself (format specifiers are used in the implementation, not the header).</t>
+  </si>
+  <si>
+    <t>The functionality seems to be correctly implemented at a structural level. However, without seeing the implementation details, it is hard to fully assess correctness.</t>
+  </si>
+  <si>
+    <t>[Performance]</t>
+  </si>
+  <si>
+    <t>No performance issues are apparent in the header file itself; these are implementation concerns.</t>
+  </si>
+  <si>
+    <t>[Security]</t>
+  </si>
+  <si>
+    <t>[Filename] modules/can/include/candefines.h</t>
+  </si>
+  <si>
+    <t>[Filename] modules/can/include/cansignals.h</t>
+  </si>
+  <si>
+    <t>Naming Conventions: Naming generally follows a consistent pattern (e.g., `ADAS_PRK_PDW_FrContrLnLvl01Val`), which is good. However, the length of some names could be improved for brevity and readability. Consider using shorter, more descriptive names where possible.</t>
+  </si>
+  <si>
+    <t>Functionality: Correctly creates an enumeration.</t>
+  </si>
+  <si>
+    <t>Efficiency: The enum itself is efficient. However, the sheer size is a potential performance concern if used inefficiently in later code.</t>
+  </si>
+  <si>
+    <t>Vulnerabilities: No direct security vulnerabilities in this header file itself.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/can/src/SVMCanData.cpp</t>
+  </si>
+  <si>
+    <t>Code Duplication: Potential for code duplication exists with the presence of both `openDeviceUBM` and `openDeviceUBM_old`, and similarly for `closeDeviceUBM`. This needs clarification.</t>
+  </si>
+  <si>
+    <t>No obvious format specifiers are present in this header file.</t>
+  </si>
+  <si>
+    <t>Potential for deadlocks exists if multiple threads access shared resources (e.g., `cameraDeviceMap`, line 96) without proper synchronization. The use of mutexes suggests an attempt at this but its effectiveness needs more scrutiny in the implementation file.</t>
+  </si>
+  <si>
+    <t>Significant code duplication exists in the `sendGearState`, `sendViewState`, and `sendBvmState` functions.</t>
+  </si>
+  <si>
+    <t>The `while(1)` loop in `captureProcess` lacks a clear exit condition beyond the `pEvtMgr-&gt;getCameraRunning()` check, increasing complexity and making debugging problematic.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/commintf/include/IvcMessages.h</t>
+  </si>
+  <si>
+    <t>Efficiency: The repeated use of `malloc` and `free` is inefficient. Using smart pointers would eliminate the need for manual memory management.</t>
+  </si>
+  <si>
+    <t>The `strType` buffer in `cDiagProc` (line 341) lacks size checking and could be subject to buffer overflow if the file `/apps/nativeservice/ccamera/gear_RP.txt` contains a string longer than 255 characters.</t>
+  </si>
+  <si>
+    <t>Repeated calls to `Utils::execute_command` in `cDiagProc` (lines 297-301) could impact performance. Consider batching commands.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear, although adding comments explaining the purpose of each member variable (lines 22-43) would significantly improve readability.</t>
+  </si>
+  <si>
+    <t>Naming conventions are mostly consistent (e.g., using camelCase), but consider whether `svm_view_sta_new` could be made more descriptive.</t>
+  </si>
+  <si>
+    <t>No obvious code duplication is present.</t>
+  </si>
+  <si>
+    <t>No format specifiers are present in the provided diff.</t>
+  </si>
+  <si>
+    <t>The functionality is not fully defined as it only declares methods and members; a proper implementation is needed to assess correctness.</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are visible in this header file. However, careful consideration of input sanitization and data validation will be necessary in the implementation to prevent issues like buffer overflows.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/include/cEventHandlerWrapper.h</t>
+  </si>
+  <si>
+    <t>Naming Conventions: Naming seems consistent, although `occurErrBitmap` (line 24) could be more descriptive.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows: Not directly apparent in the header but possible in function implementations if string manipulation or memory copying is done without proper bounds checking.</t>
+  </si>
+  <si>
+    <t>Correct Implementation: The intended functionality is clear from the comments, but the implementation is not shown and needs to be reviewed.</t>
+  </si>
+  <si>
+    <t>Memory leaks: Cannot be determined from the header file alone.</t>
+  </si>
+  <si>
+    <t>Algorithm/Data Structure Efficiency: Cannot be assessed from the header file alone.</t>
+  </si>
+  <si>
+    <t>Unnecessary Computation/Memory Usage: Cannot be assessed from the header file alone.</t>
+  </si>
+  <si>
+    <t>Sensitive Information Exposure: Not directly apparent in this header.</t>
+  </si>
+  <si>
+    <t>The lack of comments makes understanding the intent of many functions and member variables difficult (e.g., lines 26-31).</t>
+  </si>
+  <si>
+    <t>No format specifiers are present in the diff.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows are possible if the `appId` strings in various functions (e.g., lines 66-71) are not properly handled (lack of size checks).</t>
+  </si>
+  <si>
+    <t>`cEventManagerProc()` (line 39) and other private functions need to be examined to identify potential bugs.</t>
+  </si>
+  <si>
+    <t>The use of a `std::queue` is generally efficient for event handling. However, its performance should be assessed for the expected load.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are directly apparent from the header file alone, but the lack of input validation (mentioned above) could lead to vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifiers: None found in the provided diff.</t>
+  </si>
+  <si>
+    <t>Correct implementation: The functions appear to send messages, but error handling is minimal. Memory leaks are present because allocated memory is not always freed (lines 26-37, 63-78, 112-123, 181-192).</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities in this specific code, but the lack of robust error handling and memory management introduces potential for exploitation.</t>
+  </si>
+  <si>
+    <t>Code Duplication: Significant duplication exists in `VEHICLE_VARIANT_TYPE` (lines 273-284 and 291-318). This should be refactored to avoid redundancy.</t>
+  </si>
+  <si>
+    <t>Incorrect Format Specifiers: No format specifiers are present in the diff, so this is not applicable.</t>
+  </si>
+  <si>
+    <t>Correct Implementation: The functionality appears to be implemented, but the lack of organization makes it hard to verify comprehensively.</t>
+  </si>
+  <si>
+    <t>Not applicable to a header file.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are visible in this diff, but the potential memory issues mentioned could be exploited.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/JsonParser.h</t>
+  </si>
+  <si>
+    <t>No significant code duplication is present.</t>
+  </si>
+  <si>
+    <t>Potential for exceptions: The nlohmann/json library used might throw exceptions which aren't handled.</t>
+  </si>
+  <si>
+    <t>No obvious performance issues are present in this header file. Performance will depend on the implementation of the functions.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/SVMMutex.h</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/Singleton.h</t>
+  </si>
+  <si>
+    <t>The algorithm is straightforward. No obvious performance issues are visible at this level.</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are apparent in this code snippet. However, the memory leak could potentially lead to resource exhaustion attacks if exploited.</t>
+  </si>
+  <si>
+    <t>Incorrect Format Specifiers: None present in this diff.</t>
+  </si>
+  <si>
+    <t>Correct Implementation: The intended functionality (executing a command) is partially implemented, but error handling is completely missing.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/dbcsignaldecoder.h</t>
+  </si>
+  <si>
+    <t>No incorrect format specifiers are present (as this is only a header).</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows are possible in the implementation of `readUnsignedBigEndian`, `readUnsignedLittleEndian`, and `writeUnsignedLittleEndian` if `start_bit` and `signal_size` are not carefully validated against the size of the `data` array. (Lines 7, 8, 12)</t>
+  </si>
+  <si>
+    <t>The intended functionality is correctly declared, but the actual implementation (missing) needs review for correctness.</t>
+  </si>
+  <si>
+    <t>No deadlock or memory leak issues are directly apparent in the header file.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/src/JsonParser.cpp</t>
+  </si>
+  <si>
+    <t>Clarity: The code is reasonably clear, although the numerous nearly-identical getter functions (getBoolean, getInteger, getUInteger, getString) indicate significant duplication.</t>
+  </si>
+  <si>
+    <t>Naming: Naming conventions are mostly followed.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear, but naming could be improved (e.g., `execute_command` could be more descriptive).</t>
+  </si>
+  <si>
+    <t>No code duplication is present.</t>
+  </si>
+  <si>
+    <t>No exception handling: The code doesn't handle potential exceptions thrown by `std::string` operations.</t>
+  </si>
+  <si>
+    <t>Shell injection vulnerability (Line 6): This is the most serious issue. The `cmd` should be carefully validated and sanitized before being passed to `popen` to prevent malicious code execution.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/src/dbcsignaldecoder.cpp</t>
+  </si>
+  <si>
+    <t>No incorrect format specifiers found.</t>
+  </si>
+  <si>
+    <t>The changes seem to correctly implement the intended functionality, but testing is crucial to verify this.</t>
+  </si>
+  <si>
+    <t>No obvious exception handling issues, but error handling for invalid inputs (e.g., NULL pointers) should be added.</t>
+  </si>
+  <si>
+    <t>No deadlock or memory leak issues observed.</t>
+  </si>
+  <si>
+    <t>No code duplication is apparent in this header file itself.</t>
+  </si>
+  <si>
+    <t>No format specifiers were found in the provided diff.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in this header file alone. However, the buffer overflow vulnerability could be exploited.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflow: Line 287 uses `sprintf(tmpbuf, "%02X", rcvData-&gt;u.nMCANMsgArry[i]);` with a 4-byte buffer. A larger hex value would cause overflow. Consider using `snprintf` for safety.</t>
+  </si>
+  <si>
+    <t>The repeated `switch` statements are not inherently inefficient, but refactoring could improve performance and readability.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in this specific code, but secure coding practices should be followed throughout the project.</t>
+  </si>
+  <si>
+    <t>Variable names like `b_ret` are not very descriptive.</t>
+  </si>
+  <si>
+    <t>Line 57: Similar issue to line 50.</t>
+  </si>
+  <si>
+    <t>Line 295: `value` is assumed to be milliseconds; consider adding explicit type conversion for better clarity (e.g., `static_cast&lt;long long&gt;(value)`).</t>
+  </si>
+  <si>
+    <t>The error handling within `InitializeVehicleModule` needs improvement. Individual components should return detailed error codes.</t>
+  </si>
+  <si>
+    <t>The polling loop in `InitializeUbmProviderModule` (lines 202-206) could be inefficient; consider a more sophisticated approach using events or semaphores.</t>
+  </si>
+  <si>
+    <t>The hardcoded file path in `GetVariantValue` is a potential security concern. This path should be configurable through a secure mechanism.</t>
+  </si>
+  <si>
+    <t>[Filename] src/CCameraService.h</t>
+  </si>
+  <si>
+    <t>Correct implementation: The changes seem to correctly add initialization functions for different modules, but without seeing the implementation of these functions, it's difficult to fully assess correctness.</t>
+  </si>
+  <si>
+    <t>No incorrect format specifiers are present in the diff.</t>
+  </si>
+  <si>
+    <t>No obvious buffer overflows are detected.</t>
+  </si>
+  <si>
+    <t>[ Using the following prompt : PROMPT_E ]</t>
+  </si>
+  <si>
+    <t>[Summary] The patch improves the header file by replacing the traditional include guards with `#pragma once`, a generally preferred method for header file inclusion.  The change is simple, clean, and improves maintainability.  However, there's a minor namespace issue.</t>
+  </si>
+  <si>
+    <t>The code is clear and easy to understand.  Naming conventions are followed consistently.  There is no code duplication.  The switch to `#pragma once` is a positive change.</t>
+  </si>
+  <si>
+    <t>The change has no impact on performance.</t>
+  </si>
+  <si>
+    <t>No security vulnerabilities are introduced by this change.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/camera/src/CameraDevice.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] The patch disables logging controlled by `RENDER_LOG`.  The code is generally well-structured but has some areas for improvement in error handling and potential for inefficiency.  Overall quality is moderate.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear and follows naming conventions. There is some code duplication in `setSourceFrame` and `setDestinationFrame` (lines 295-310 and 312-327).  This could be refactored into a single function.</t>
+  </si>
+  <si>
+    <t>The algorithms seem reasonably efficient, but the repeated map lookups in various functions (e.g., lines 57, 70, 116, 127, 137, 179) could be optimized if `clients` is frequently accessed.  Consider caching the iterator if performance becomes an issue.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in this patch.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/camera/src/CameraTestDevice.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a camera emulator.  While functional, it has some areas needing improvement in code clarity, logging, and error handling.  Overall quality is moderate.</t>
+  </si>
+  <si>
+    <t>The code is mostly readable but could benefit from more descriptive variable names (e.g., `w` and `h` in `TestCameraFrame`).  The commented-out log statement (line 119) should be removed.  Naming conventions are generally followed. No significant code duplication is present.</t>
+  </si>
+  <si>
+    <t>The `CCL_LOGI` format specifier is missing in line 105. There is no apparent buffer overflow, but error handling in `startCameraStream` and `stopCameraStream` could be improved.  They only check for already running/stopped states and return `ERROR_DRIVER`, which isn't very informative.  No deadlock issues are immediately apparent, but the lack of detailed error handling could mask them.  The `TestCameraFrame` destructor correctly handles memory (lines 42-44).  A potential bug exists: if `width` or `height` is zero or very large, `new int32_t[w * h]` could lead to allocation failure.</t>
+  </si>
+  <si>
+    <t>The algorithm is straightforward. Memory usage is moderate and directly proportional to the image size.  Filling the buffer with a single color (line 113) is efficient.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in this code snippet.</t>
+  </si>
+  <si>
+    <t>Naming conventions are inconsistent.  Some names use uppercase acronyms (e.g., `YRS_YawSigSta`), while others are more descriptive (e.g., `SVM_CaptureModeState`).  Consistency should be improved.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are apparent in the header.  Security will be largely determined by implementation.</t>
+  </si>
+  <si>
+    <t>The code is clear and follows reasonable naming conventions (e.g., `MCanMessageId`, `static_mcanMessages`).  There is no obvious code duplication.  However, the use of `unsigned long` for `offset` and `size` might be improved by using more specific types if the maximum values are known (e.g., `uint32_t`). Line 34 uses `const char*` which might lead to issues if the string literals are not managed properly.  Consider using `std::string` for better memory management.</t>
+  </si>
+  <si>
+    <t>The use of `std::vector` is generally efficient. No unnecessary computation or memory usage is immediately obvious.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in this header file alone.  However, the security of the overall system will depend on how this data is used and protected in other parts of the application.</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a new header file defining CAN signal IDs.  While it correctly implements the intended functionality of creating an enumeration of signal IDs, the sheer volume of signals raises concerns about maintainability and potential future issues.  The lack of comments also detracts from readability.</t>
+  </si>
+  <si>
+    <t>Readability: The code is understandable at a glance but severely lacks comments.  Adding comments explaining the purpose of each signal would significantly improve readability (lines 4-2012).</t>
+  </si>
+  <si>
+    <t>No Format Specifiers:  This is a header file, so there are no format specifiers to review.</t>
+  </si>
+  <si>
+    <t>The code is functionally correct but its large size and lack of comments reduce its maintainability and long-term value.  Addressing these issues would greatly improve the code quality.</t>
+  </si>
+  <si>
+    <t>[Summary] The code implements CAN data parsing and forwarding to an event manager.  While functional, it suffers from significant code duplication and memory management issues.  The use of timers is unclear and potentially problematic. Overall quality is moderate.</t>
+  </si>
+  <si>
+    <t>[Code Quality]  The code is understandable but repetitive.  Many functions (e.g., `sendAccStatus`, `sendIgnitionStatus`) share almost identical structure.  Naming conventions are generally followed, though some names could be more descriptive.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifiers: Line 105 uses `%d` for `ign1_info-&gt;can_ign1` which might be a different type.  Similarly, check all `%d` vs. `%x` usages for consistency with underlying data types.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows: No direct buffer overflows are apparent, but the use of `malloc` without explicit size checks in numerous `send...` functions (lines 44, 83, 119, etc.) is risky.  If `event_type` or other structs grow, it could cause problems.</t>
+  </si>
+  <si>
+    <t>[Performance] The repetitive code structure impacts performance.  Refactoring is crucial for efficiency.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/capture/include/CameraCaptureManager.h</t>
+  </si>
+  <si>
+    <t>Clarity: The code is mostly clear, but the extensive use of `#if 0` blocks (lines 55-61, 64-70, 83-86) makes it difficult to understand the intended functionality without knowing the context of `SWM_PORTING_TO_QNX`.  These sections should be removed or clearly explained.</t>
+  </si>
+  <si>
+    <t>Naming Conventions:  Naming is mostly consistent but could be improved.  For example, `_name` (e.g., line 56) is not a standard naming convention; consider using `name` instead.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows are possible in functions that handle string inputs (e.g., `init_UBM`, `restart`, etc.) without explicit size checks.  Input validation is crucial.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Performance]</t>
+  </si>
+  <si>
+    <t>The efficiency of algorithms and data structures cannot be assessed without seeing the implementation.  Consider using more efficient containers if necessary.</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are apparent in this header file alone.  However, the implementation needs review to ensure secure handling of potentially sensitive data.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/capture/src/CameraCaptureManager.cpp</t>
+  </si>
+  <si>
+    <t>Code clarity is low due to the sheer size and complexity.  Excessive use of `#if 0` blocks hinders understanding.  Meaningful comments are sparse.</t>
+  </si>
+  <si>
+    <t>Naming conventions are inconsistently applied (e.g., `tmpProc`, `checkMirroringStatusThread_t`).  More descriptive names are needed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Functionality]</t>
+  </si>
+  <si>
+    <t>Incorrect format specifier: Line 125: `CCL_LOGI("send done:%d", ret);` should likely be `CCL_LOGI("send done: %d", ret);` to match the others.  Similar issues exist throughout.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflow: Line 507, `strcpy(config.color_format, "RGBA8888");`.  `config.color_format` needs a size check or `strncpy` to prevent overflow.</t>
+  </si>
+  <si>
+    <t>Potential deadlock:  The use of `lock_guard&lt;mutex&gt;` in `tmpProc` (line 171) without proper consideration of potential interactions with other mutexes in the class could lead to deadlocks.</t>
+  </si>
+  <si>
+    <t>Repeated `fopen`/`fclose` calls in `captureProcess` (lines 1085, 1104, 1119)  can be optimized using a single file handle check.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [Security]</t>
+  </si>
+  <si>
+    <t>The use of `Utils::execute_command` to interact with `i2ctransfer` (lines 105, 175, etc.) raises security concerns.  This should be reviewed carefully for potential vulnerabilities.  Input sanitization is crucial.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/commintf/include/IvcInterface.h</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a new header file for an IVC interface class. While the code is generally well-structured and readable, it lacks crucial implementation details and raises some concerns regarding functionality and potential errors.</t>
+  </si>
+  <si>
+    <t>The code is relatively clear and follows reasonable naming conventions.  However, lines 33-37 (commented-out member variables) suggest potential for future inconsistency or forgotten functionality.  Consider removing them or providing comments explaining their intended purpose and why they're currently inactive. The use of a singleton pattern (line 21) should be carefully considered for its potential drawbacks in testability and concurrency.</t>
+  </si>
+  <si>
+    <t>Performance cannot be evaluated without the implementation. The choice of `std::shared_ptr` is generally efficient for managing the listener.</t>
+  </si>
+  <si>
+    <t>Without implementation details, it's impossible to assess security vulnerabilities. However, potential security risks associated with handling external input (especially file paths in `sendIVCFile`) must be carefully addressed in the implementation.</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces two enums and four structs defining service IDs and message IDs for an in-vehicle communication system.  The code is generally well-structured but lacks sufficient comments explaining the purpose of each ID and struct.</t>
+  </si>
+  <si>
+    <t>The code is readable and follows reasonable naming conventions (though using all-caps for enum values might be slightly excessive).  There is no obvious code duplication.  However, adding comments to explain the meaning of each service ID and message ID (lines 5-28 and 33-56) would significantly improve clarity.</t>
+  </si>
+  <si>
+    <t>Performance is not a concern at this level; it's a header file defining data structures.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present. The header file itself does not handle data that would be considered sensitive.</t>
+  </si>
+  <si>
+    <t>The code is well-written and functional, but more comments would greatly enhance its maintainability and understandability.  A thorough review of the implementation code is needed to assess functionality and security more comprehensively.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/commintf/include/cDiagInterface.h</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear and follows a consistent naming convention (camelCase). However, the public and private sections are oddly interspersed (lines 32-37).  Consider reorganizing for better readability.  No obvious code duplication.</t>
+  </si>
+  <si>
+    <t>Incorrect Format Specifiers: None are present in this header file.  This will need to be checked in the implementation (.cpp) file.</t>
+  </si>
+  <si>
+    <t>The header file itself doesn't reveal performance issues, but the choice of data structures and algorithms in the implementation will be crucial.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities in the header file itself.  However, the potential buffer overflow in `response_on_service_send` is a significant security risk if exploited.  Secure coding practices are crucial in the implementation.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/commintf/src/IvcInterface.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a new file implementing an IVC interface.  While functional, it suffers from several issues impacting code quality, functionality, and security.  Significant improvements are needed.</t>
+  </si>
+  <si>
+    <t>Clarity: The code is understandable but could benefit from better comments explaining the logic, especially around service ID handling (lines 142-160, 195-198).  The heavy reliance on `CCL_LOGI` and `CCL_LOGE` for debugging makes the core logic harder to follow.</t>
+  </si>
+  <si>
+    <t>Naming:  Naming conventions are mostly consistent, but `onAvailabileMap_` (line 14) should be `onAvailableMap_`.</t>
+  </si>
+  <si>
+    <t>Duplication:  There's significant code duplication in the `parseGet...` functions (lines 539-1269).  This should be refactored into a single function handling different message types.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifiers:  `CCL_LOGE("registerService:%d" , (int)result);` (line 217) should be `CCL_LOGE("registerService: %d", (int)result);`. Similar issues exist in other log statements.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  No direct buffer overflows are evident, but the lack of input validation in the `parse...` functions (lines 539-1269)  is a major concern.  The code assumes JSON data is always correctly formatted and within expected sizes.</t>
+  </si>
+  <si>
+    <t>Functionality:  The intended functionality seems implemented, but rigorous testing is required to verify the correct handling of all service IDs and message types.</t>
+  </si>
+  <si>
+    <t>Vulnerabilities:  Lack of input validation in JSON parsing is a significant security risk.  Maliciously crafted JSON could lead to crashes or unexpected behavior.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/commintf/src/cDiagInterface.cpp</t>
+  </si>
+  <si>
+    <t>The code uses inconsistent naming (e.g., `diag_init_done` vs `diagThread_t`).  Consistent naming conventions should be applied throughout.</t>
+  </si>
+  <si>
+    <t>Magic numbers (e.g., 0x10, 0x96B800, 0x2) are used without explanation, hindering readability.  Define constants for these values.</t>
+  </si>
+  <si>
+    <t>The `#if 0` blocks (lines 174-184, 285-328) suggest unfinished or commented-out code.  Remove unused code or clarify its purpose.</t>
+  </si>
+  <si>
+    <t>`CCL_LOGI("Async send complete...DTC_Code: 0x%x, Satatus: 0x%x", arg_DTC, arg_status);` (line 181):  `arg_DTC` and `arg_status` are not defined within the function scope.  This is an incorrect format specifier and a potential bug.</t>
+  </si>
+  <si>
+    <t>Error handling for `fopen`, `fscanf`, and `system` calls is insufficient.  Check return values and handle errors appropriately.</t>
+  </si>
+  <si>
+    <t>Excessive sleeping (`std::this_thread::sleep_for`) in several functions indicates potential inefficiency.  Explore alternative mechanisms for synchronization or event handling.</t>
+  </si>
+  <si>
+    <t>The code relies heavily on `system()` calls (lines 288, 297-301, 326), which present security risks.  Avoid `system()` calls whenever possible and use safer alternatives.  Input validation is absent, leading to potential vulnerabilities.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/include/cEventHandler.h</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a new class `cEventManager::eventHandle`, which seems to manage various event-related data.  The code is generally well-structured but lacks implementation details and could benefit from better commenting and potentially more robust data structures.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows are a concern if the `DiagStatus_XXX` structs (lines 30-43) are not carefully managed.  Ensure they are of sufficient size to accommodate the data they are intended to hold.  Consider using `std::vector` for dynamic sizing if needed.</t>
+  </si>
+  <si>
+    <t>No exception handling is present.  Consider adding exception handling where necessary depending on external function calls.</t>
+  </si>
+  <si>
+    <t>Performance cannot be fully evaluated without the implementation.  However, using structs (lines 30-43) directly is efficient if their size is well managed.</t>
+  </si>
+  <si>
+    <t>The code is a good starting point, but the lack of implementation details and potential for buffer overflows lowers the score.  Thorough testing and addressing the comments above are essential before merging.</t>
+  </si>
+  <si>
+    <t>Clarity: The code is reasonably clear, but the large #if 0 block (lines 23-67) makes the header less readable and harder to maintain.  This block should be removed or explained. Function descriptions are helpful but could be more concise.</t>
+  </si>
+  <si>
+    <t>Code Duplication:  `sendCameraStreamErrorStatus` is declared twice (lines 21 and 31), with different signatures. This is a serious error.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifiers: None present in the header file itself.  This needs to be checked in the implementation files.</t>
+  </si>
+  <si>
+    <t>Security Vulnerabilities: Cannot be assessed from the header file alone.  Input validation and sanitization are critical in the implementation.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/include/cEventManager.h</t>
+  </si>
+  <si>
+    <t>Naming conventions are inconsistent (e.g., `m_evtMgrMutex` vs. `m_cEventProcThread`).  More consistent use of camelCase or snake_case is recommended.</t>
+  </si>
+  <si>
+    <t>The `parseEvent` array (line 41) is unclear without further context. What are the MSG_TYPE_NUM types?  Add a comment explaining its purpose.</t>
+  </si>
+  <si>
+    <t>The sheer number of public methods suggests a potential design flaw. Consider grouping related functions into smaller, more cohesive classes.  This would improve readability and maintainability.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/src/cEventHandler.cpp</t>
+  </si>
+  <si>
+    <t>Clarity: Poor. The `getDiagCheckCamera` function (lines 81-446) is excessively long and complex, making it difficult to understand.  Improved modularity is crucial.</t>
+  </si>
+  <si>
+    <t>Naming:  Mixed. Some names are descriptive (e.g., `getDiagCheckCamera`), others less so. Consistent naming conventions should be enforced.</t>
+  </si>
+  <si>
+    <t>Code Duplication: High.  The DTC handling (lines 186-444) shows significant repetition. This should be refactored into a loop or helper function.</t>
+  </si>
+  <si>
+    <t>Incorrect Format Specifiers:  No obvious incorrect format specifiers found in the provided diff, but a thorough check is needed once the `#if 0` is removed.</t>
+  </si>
+  <si>
+    <t>Correct Implementation:  Functionality is questionable due to the `#if 0`.  The logic within needs careful review for correctness.</t>
+  </si>
+  <si>
+    <t>Efficiency: The large size of `getDiagCheckCamera` suggests inefficiency.  Refactoring will improve performance.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities, given the current conditional compilation status.  This area needs re-evaluation if the `#if 0` is removed.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/src/cEventHandlerWrapper.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] The code implements several functions to send different event messages.  While functional, it suffers from significant memory management issues and lacks error handling beyond basic checks. Code duplication is also prevalent. Overall quality is low.</t>
+  </si>
+  <si>
+    <t>Clarity:  The code is understandable but repetitive.  The numerous nearly identical functions decrease readability.</t>
+  </si>
+  <si>
+    <t>Naming: Naming conventions are inconsistently applied (e.g., `cEventManager` vs `eventManager`).  More descriptive names for functions and data structures would improve clarity.</t>
+  </si>
+  <si>
+    <t>Duplication:  High code duplication across functions (lines 13-49, 141-166, 205-229, 231-255, 257-281).  This should be refactored into a single function.</t>
+  </si>
+  <si>
+    <t>Memory leaks: Memory allocated for `message` and data structures are not freed consistently in several functions.  This needs immediate correction.</t>
+  </si>
+  <si>
+    <t>Inefficient:  The repeated allocation and deallocation of memory for each message is inefficient. A more efficient approach, like a memory pool, is recommended.</t>
+  </si>
+  <si>
+    <t>Recommendations: Refactor the duplicated code into a single function with parameterization. Implement robust error handling and memory management (using `new`/`delete` or smart pointers, and always free allocated memory).  Add checks to prevent potential vulnerabilities related to the `sendMessage` function (size validation). Improve logging for better debugging.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/event/src/cEventManager.cpp</t>
+  </si>
+  <si>
+    <t>The code is difficult to understand due to the sheer volume and lack of comments explaining the complex logic within many functions (e.g., `parseGet_gear`, lines 678-776).  Better internal commenting and modularization are needed.</t>
+  </si>
+  <si>
+    <t>Naming conventions are inconsistently applied.  While `msgtype` is well-named, some variable names (e.g., `camInfo` which could be more specific) lack descriptive power.</t>
+  </si>
+  <si>
+    <t>There is some code duplication in the handling of different camera types in various functions.  This should be refactored for maintainability.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifier: Line 174 uses `%s` with `msgtype[msg-&gt;msg_type]`, which might be NULL, causing a crash.  Add a check to prevent this.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  No explicit buffer overflows are evident in the provided code, but the usage of functions like `free(m_pMessage-&gt;data)` without size checks in many functions (lines 346, 354, etc.)  indicates a potential risk if `m_pMessage-&gt;data` is not always properly allocated and freed.  Input validation should be added.</t>
+  </si>
+  <si>
+    <t>The `stop()` function (lines 193-200) is incomplete.  This needs to be addressed.</t>
+  </si>
+  <si>
+    <t>No significant performance issues are immediately apparent.  However, the large number of individual functions for handling each event type might slightly impact performance.  A more efficient event dispatch mechanism might be considered.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present, but input validation and careful memory management are crucial to prevent exploits.  The lack of input validation is a significant security concern.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/GlobalDefine.h</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a large header file defining various constants, enums, and structs. While it comprehensively defines many aspects of the system, it suffers from several issues impacting readability, maintainability, and potential for errors.  Overall code quality is moderate.</t>
+  </si>
+  <si>
+    <t>Clarity and Understanding:  The sheer size (1626 lines) and lack of clear sectioning make the header difficult to navigate and understand.  Better organization with comments and sections for different modules (e.g., camera, system info, etc.) is needed.  Many enum values lack descriptive names (e.g.,  `0x00`, `0x01` instead of descriptive constants). Lines 273-284 and 291-318 show near-duplicate enum definitions, creating confusion and maintenance problems.</t>
+  </si>
+  <si>
+    <t>Naming Conventions:  Inconsistent use of capitalization (e.g., `HW_REV` vs `camera_variant_type`).  Naming should be consistent and follow a clear style guide.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear and follows basic naming conventions.  However,  some function names (e.g., `getIntent`) could be more descriptive.  Consider renaming to clarify the intent (e.g., `getStringIntent`).</t>
+  </si>
+  <si>
+    <t>Missing Error Handling: The functions lack robust error handling.  For example,  `getInteger`, `getString`, etc., should return a boolean indicating success or failure, rather than silently failing or returning default values (lines 14-26).</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are apparent in this header file alone.  However, improper handling of user-supplied JSON data in the implementation could lead to vulnerabilities (e.g., injection attacks).</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/SVMCondition.h</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a `Condition` class for thread synchronization, but lacks crucial implementation details and error handling.  Overall quality is low due to incompleteness.</t>
+  </si>
+  <si>
+    <t>The code is relatively clear in its intent (lines 17-30). Naming conventions (`mCond`, `mAttr`) are acceptable within the context of a C++ class.  However, the absence of implementation details makes it hard to assess clarity fully.  The comment blocks (lines 3-5, 13-15) are somewhat verbose.</t>
+  </si>
+  <si>
+    <t>Performance cannot be assessed without the implementation.  The choice of `pthread_cond_t` is standard and generally efficient.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present in the header file.  However, improper use of the condition variable in the implementation could lead to race conditions.</t>
+  </si>
+  <si>
+    <t>The patch needs substantial improvement.  The implementation of the `Condition` class, including constructors, destructors, and error handling, needs to be added.  Thorough testing is required to address potential issues such as deadlocks.</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a `Mutex` class and a convenient `Autolock` wrapper.  The code is generally well-written and easy to understand, but lacks implementation details and error handling.  Overall quality is good but needs further refinement.</t>
+  </si>
+  <si>
+    <t>The code is clear and follows reasonable naming conventions.  The use of an `Autolock` class is a good practice for RAII (Resource Acquisition Is Initialization).  No code duplication is present.  However, the header file lacks Doxygen-style comments explaining the purpose and usage of the class and methods.</t>
+  </si>
+  <si>
+    <t>The choice of `pthread_mutex_t` is efficient for POSIX-compliant systems. No unnecessary computation or memory usage is apparent in the header file.</t>
+  </si>
+  <si>
+    <t>No direct security vulnerabilities are present in this header file.  However, the implementation of `lock()` and `unlock()` is crucial for security; ensuring proper atomicity and avoiding race conditions is vital.</t>
+  </si>
+  <si>
+    <t>The header file is well-structured but needs the implementation of the methods (`lock`, `unlock`, constructor, destructor) to be fully assessed.  Adding comprehensive error handling, especially for `pthread_mutex_t` calls, is necessary.  Adding detailed comments will significantly improve the code's quality.</t>
+  </si>
+  <si>
+    <t>The code is understandable but the excessive use of macros (lines 71-136) makes it less maintainable and harder to debug.  The naming is inconsistent (e.g., "DEFUALT" instead of "DEFAULT").  There's significant code duplication in the macro definitions for optional and default Singleton types.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/include/Utils.h</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a new `Utils` class with a single function `execute_command`. While simple, it lacks crucial error handling and security considerations, resulting in a low overall score.</t>
+  </si>
+  <si>
+    <t>The code is clear and concise (lines 7-10). Naming conventions are acceptable. There's no code duplication in this small snippet.  However, a more descriptive name than `Utils` might be beneficial if more functionality is added later.</t>
+  </si>
+  <si>
+    <t>The performance is highly dependent on the implementation of `execute_command`.  The current minimal implementation doesn't show any obvious performance issues, but the lack of error handling could lead to unexpected delays or program termination.</t>
+  </si>
+  <si>
+    <t>This is a major security concern.  The lack of input validation and output size control in `execute_command` opens the door to buffer overflow attacks (line 9).  Furthermore, the use of `const char* cmd` is vulnerable to injection attacks.</t>
+  </si>
+  <si>
+    <t>Recommendations:</t>
+  </si>
+  <si>
+    <t>1. Add comprehensive error handling to `execute_command`.</t>
+  </si>
+  <si>
+    <t>2. Implement robust input validation to prevent command injection.</t>
+  </si>
+  <si>
+    <t>3.  Strictly limit the size of the output buffer to prevent buffer overflow. Consider using a safer alternative to `system`.</t>
+  </si>
+  <si>
+    <t>4. Add exception handling where appropriate.</t>
+  </si>
+  <si>
+    <t>5.  Document the function thoroughly, including potential errors and security implications.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear and follows decent naming conventions.  The use of a namespace is good.</t>
+  </si>
+  <si>
+    <t>No code duplication is present in this header file.  However, the functions themselves *might* contain duplicated code (unseen in this header).</t>
+  </si>
+  <si>
+    <t>Performance is highly dependent on the implementation details which are missing. The algorithm choice will influence performance.  Using bitwise operations could improve efficiency.</t>
+  </si>
+  <si>
+    <t>Security vulnerabilities are likely if input validation is not performed in the implementation.  Untrusted input could lead to buffer overflows.</t>
+  </si>
+  <si>
+    <t>Duplication:  High code duplication in getter functions.  This should be refactored into a single generic getter function.</t>
+  </si>
+  <si>
+    <t>Incorrect Format Specifiers: No incorrect format specifiers are present in the *provided* diff, as the logging statements are commented out.  However, if uncommenting, they will need to be reviewed for correctness.</t>
+  </si>
+  <si>
+    <t>Correct Implementation:  The core functionality appears correct, but the error handling is weak (commented-out logging makes debugging difficult).</t>
+  </si>
+  <si>
+    <t>Efficiency:  The algorithms are straightforward and reasonably efficient for this task.</t>
+  </si>
+  <si>
+    <t>Unnecessary Usage:  The repeated getter functions represent an inefficiency in terms of code size and maintainability.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities.  The code does not handle untrusted JSON input in a robust manner; however, this is not explicitly called out as a concern in the provided context.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/src/SVMCondition.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a basic Condition variable implementation using pthreads.  The code is straightforward but lacks error handling and robustness.</t>
+  </si>
+  <si>
+    <t>The code is reasonably clear and easy to understand. Naming conventions are followed consistently (e.g., `mAttr`, `mCond`, `Mutex`). There is no code duplication.  However, the comments (lines 1-9) are somewhat generic and could be more descriptive.</t>
+  </si>
+  <si>
+    <t>The performance appears reasonable for a simple condition variable implementation.  No obvious inefficiencies are present.</t>
+  </si>
+  <si>
+    <t>No obvious security vulnerabilities are present.</t>
+  </si>
+  <si>
+    <t>1. Add comprehensive error handling to all pthread functions.  Log errors or throw exceptions. (Lines 14, 16, 21, 26, 31, 37)</t>
+  </si>
+  <si>
+    <t>2.  Clarify the locking mechanism with documentation and ensure proper locking/unlocking around the condition variable usage to prevent deadlocks.</t>
+  </si>
+  <si>
+    <t>3. Improve comments to be more specific.  For instance, explain the purpose of using `CLOCK_MONOTONIC`.</t>
+  </si>
+  <si>
+    <t>4. Consider adding more sophisticated features like broadcast signals.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/src/SVMMutex.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] This patch introduces a simple mutex implementation using pthreads.  The code is straightforward and functional but lacks error handling and some robustness considerations.</t>
+  </si>
+  <si>
+    <t>The code is clear and easy to understand. Naming conventions are followed consistently (e.g., `Mutex::lock()`). There is no code duplication.  However, the comment blocks (lines 1-3, 7-9) could be improved; they're overly verbose and don't add significant value.</t>
+  </si>
+  <si>
+    <t>The changes correctly implement a basic mutex.  However:</t>
+  </si>
+  <si>
+    <t>Error Handling (lines 13, 18, 23, 28):  `pthread_mutex_init`, `pthread_mutex_destroy`, `pthread_mutex_lock`, and `pthread_mutex_unlock` can fail.  The code should check the return values of these functions and handle errors appropriately (e.g., logging, throwing exceptions, returning error codes).  Lines 13, 18, 23, and 28 need to be updated to handle potential errors.</t>
+  </si>
+  <si>
+    <t>The algorithm is efficient for its purpose. There is no unnecessary computation or memory usage.</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are apparent.</t>
+  </si>
+  <si>
+    <t>The implementation is functional but needs improvements in error handling to be robust.  Addressing error handling and adding exception handling will significantly improve the code quality and reliability.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/utils/src/Utils.cpp</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows (Line 4, 9): The 128-byte buffer is insufficient to handle arbitrarily long command outputs.  `fgets` can overrun this buffer, leading to a security vulnerability.</t>
+  </si>
+  <si>
+    <t>Error handling is insufficient (Line 7):  The `if (pipe.get())` check only handles `popen` failure, not errors during `fgets` or `pclose`.</t>
+  </si>
+  <si>
+    <t>Security vulnerability (Line 6): Using `popen` directly is risky; it's vulnerable to shell injection if the input `cmd` is not properly sanitized.  This is a major security risk.</t>
+  </si>
+  <si>
+    <t>The fixed-size buffer is inefficient.  A dynamically allocated buffer would be more robust and flexible.</t>
+  </si>
+  <si>
+    <t>The code is relatively clear and easy to understand.  Naming conventions are mostly followed.</t>
+  </si>
+  <si>
+    <t>There's some code duplication in the `readUnsignedBigEndian` and `readUnsignedLittleEndian` functions.  The logic could be refactored for better efficiency and reduced redundancy.</t>
+  </si>
+  <si>
+    <t>The bit manipulation algorithms are relatively straightforward.  Optimizations are possible by using bitwise operations more effectively. The duplicated code should be refactored.</t>
+  </si>
+  <si>
+    <t>The primary security concern is the potential for buffer overflows mentioned above.  Adding input validation is crucial to mitigate this vulnerability.  No sensitive information is directly exposed.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/vehicle/include/VehicleManager.h</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a new header file defining structures and a class for vehicle management. While the code is generally understandable, there are concerns regarding data structure design, potential buffer overflows, and a lack of error handling.</t>
+  </si>
+  <si>
+    <t>Naming conventions are inconsistent.  Hungarian notation (e.g., `nECANSigID`, `nMCANMsgArry`) is mixed with more modern conventions.  Consistency should be enforced. (Lines 28-59)</t>
+  </si>
+  <si>
+    <t>The `MCANMESSAGE_FROM_CVEHICLEHAL` struct (lines 34-54) is overly complex and deeply nested.  This makes it difficult to understand and maintain.  Consider restructuring for clarity.  The use of unions might introduce subtle bugs if not handled carefully. The magic numbers for SPI_MAX_LENGTH should be replaced by a constant.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  The `nName` array in `Recv_HW_EOL_Info_M` (line 57) is only 32 bytes.  If a longer name is received, this will lead to a buffer overflow.  Consider using `std::string` instead.</t>
+  </si>
+  <si>
+    <t>Missing error handling: The functions in `CVehicleManager` (lines 69-79) lack error handling and return values don't appear to be checked.  Add error checks and appropriate handling for potential failures (e.g., invalid input data, communication errors).</t>
+  </si>
+  <si>
+    <t>The nested structure in `MCANMESSAGE_FROM_CVEHICLEHAL` might impact performance due to unnecessary memory access.  Restructuring could improve efficiency.</t>
+  </si>
+  <si>
+    <t>The header file introduces necessary data structures but suffers from design flaws that could lead to runtime errors and maintenance issues.  Addressing the complexity, potential buffer overflows, and lack of error handling is crucial before merging this patch.</t>
+  </si>
+  <si>
+    <t>[Filename] modules/vehicle/src/VehicleManager.cpp</t>
+  </si>
+  <si>
+    <t>Naming conventions are mostly consistent (e.g., `CVehicleManager`), but could be improved by using more descriptive names for some functions and variables.  Comments are sparse and could be more informative.</t>
+  </si>
+  <si>
+    <t>There's a lot of repetitive code in the `procCVehicleHal_*` functions.  Consider refactoring to reduce duplication.</t>
+  </si>
+  <si>
+    <t>Incorrect format specifier: Line 41 uses `%d` for `value`, which might be a `uint16_t` requiring `%u` or `%hu`. Similar issues may exist in other `CCL_LOGE` and `CCL_LOGI` calls.  Carefully check all format strings.</t>
+  </si>
+  <si>
+    <t>Memory leaks are possible if allocated memory isn't released.  The constructor and destructor need implementation.  Check for other potential leaks related to data structures (vector, strings).</t>
+  </si>
+  <si>
+    <t>[Filename] src/CCameraService.cpp</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces significant functionality related to vehicle module initialization and improves error handling.  However, it suffers from some readability and potential error issues.</t>
+  </si>
+  <si>
+    <t>Lines 38-67 (GetVariantValue): The function is poorly named; "GetCameraType" would be more descriptive.  The error handling is rudimentary and could be improved by using exceptions or a more robust error reporting mechanism.  The hardcoded file path "/apps/nativeservice/ccamera/cam_type" should be configurable.</t>
+  </si>
+  <si>
+    <t>The commented-out includes (lines 3-21) should be removed for clarity.  The use of `#if 1` (line 37) is unconventional and should be replaced with a proper conditional compilation flag.</t>
+  </si>
+  <si>
+    <t>Line 50: Incorrect format specifier.  `CCL_LOGE("cam type read error, set to default RVM", type);` would be better, but the log message could be more informative.</t>
+  </si>
+  <si>
+    <t>[Summary] The patch improves the `CCameraService` class by adding more comprehensive initialization, member variables, and clarifying the `DispatchMessage` function signature.  However, it lacks crucial error handling and resource management. Overall quality is moderate.</t>
+  </si>
+  <si>
+    <t>The code is generally clear and follows reasonable naming conventions.  The addition of member variables improves organization. However, the lack of comments explaining the purpose of newly added modules and functions decreases readability.</t>
+  </si>
+  <si>
+    <t>No obvious performance issues are visible in the header file itself.  Performance concerns would depend on the implementation details of the added initialization functions.</t>
+  </si>
+  <si>
+    <t>[Filename] src/main.cpp</t>
+  </si>
+  <si>
+    <t>The code is mostly clear and follows reasonable naming conventions.  The use of `#if 0` blocks (lines 9-11) for conditional compilation is acceptable, but could be improved with more descriptive preprocessor macros. There's no significant code duplication.</t>
+  </si>
+  <si>
+    <t>The changes largely implement intended functionality, adding initialization and improving error handling.  The addition of `setbuf(stdout, NULL)` (line 31) is good for unbuffered output.</t>
+  </si>
+  <si>
+    <t>No significant performance issues are apparent. Algorithm choice seems appropriate for this level of functionality.</t>
+  </si>
+  <si>
+    <t>No immediate security vulnerabilities are identified.  However, a more thorough security audit might be needed depending on the context of `CCameraService` and its handling of external inputs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        You are an experienced software engineer and code reviewer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Your task is to perform a thorough and constructive code review on a patchset submitted through Gerrit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        After reviewing a code, generate a comprehensive report summarizing the findings.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Include information such as identified issues, recommendations for improvement, areas of strength, and overall code quality assessment.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        The report should be well-structured, easy to understand, and provide actionable feedback to the developer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Input Information:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1. File Name : {}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2. DIFF content: Changes included in the patch set</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;diff_content&gt;{}&lt;/diff_content&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3. NEW file: Complete source code of file after the changes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;new_file&gt;{}&lt;/new_file&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Review Guidelines:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Please conduct the code review for diff_content considering the following items.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Refer to the new_file when you need line numbers, variables and functions information.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;code_quality&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Is the code clear and easy to understand?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Does it follow appropriate naming conventions?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Is there any code duplication?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/code_quality&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;functionality&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Provide all incorrect format specifiers in the diff_content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Provide a potential buffer overflows.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Do the changes correctly implement the intended functionality?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Is exception handling done appropriately?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Provide a deadlock issues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Provide a potential bugs or errors.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/functionality&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;performance&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Are algorithms and data structures chosen efficiently?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Is there any unnecessary computation or memory usage?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/performance&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;security&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Are there any security vulnerabilities?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Is any sensitive information exposed?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        &lt;/security&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Review Format:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Filename] Provide file name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Summary] Provide a brief summary of the overall quality of the changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Code Quality]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Functionality]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Performance]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        [Security]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Please follow above guidelines to perform a thorough and useful code review for diff_content.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Ensure your response is clear, concise, and accurate. Your response should maintain a professional and informative tone throughout.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Please assign a score (out of 10, with 10 being excellent) reflecting the overall quality of the changes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Include the exact line numbers if you find that needs to be fixed in diff. But Find the exact line number in new_file.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Please make the result less than 300 words.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>9/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a new header file defining a structure `SVMCanData` and associated functions.  While the code is largely functional, it suffers from several issues impacting readability, maintainability, and potential for errors. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The patch introduces a new header file defining CAN message and signal structures.  The code is generally well-structured and readable, but lacks some crucial elements for robustness and error handling.  Overall quality: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score]: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a new header file for CameraCaptureManager, defining its interface.  While the code is generally understandable, several areas need improvement regarding clarity, consistency, and potential issues. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a large amount of code with significant functionality, but suffers from several issues impacting readability, maintainability, and potential for errors.  Overall quality is moderate.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] This patch introduces a new header file for a diagnostic interface.  The code is generally well-structured but lacks error handling and raises several potential issues. Overall quality: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The code introduces a new diagnostic interface, but suffers from several issues impacting readability, maintainability, and potential for errors.  Overall quality is moderate. Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a header file declaring several event handling functions. While the functionality is clear, the code contains significant issues regarding style, organization, and potential for future problems.  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] This patch introduces a `JsonParser` class for handling JSON data.  The code is generally well-structured but lacks error handling and could benefit from more descriptive function names. Overall quality: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The patch introduces a header file with functions for decoding and encoding signals based on endianness.  The code is generally clear but lacks implementation details and error handling. Overall quality: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The JsonParser implementation is largely functional but suffers from several areas needing improvement in error handling, logging, and code duplication.  Overall quality is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Overall Score] </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The patch introduces a `execute_command` function, but suffers from several critical flaws regarding security and robustness.  Overall quality is low. Score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The patch introduces functions for reading and writing data bits in big and little-endian formats.  The code is generally well-written but has some minor issues and areas for improvement. Overall score: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[Summary] The patch improves the main function by adding error handling and initialization, but has some minor issues. Overall quality: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7/10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Overall quality is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6/10.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The header file shows promise in its structure but lacks crucial implementation details to provide a complete assessment. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No format specifiers are present. There are no obvious buffer overflows, deadlock issues, Memory leaks, or exception handling concerns in this header file alone.  The functionality remains unchanged; it's a purely stylistic improvement.  Line 51:  The namespace is listed as `vcamera` which is likely a typo and should be `ccamera` to match the declaration on line 9.</t>
+  </si>
+  <si>
+    <t>No incorrect format specifiers were found in the diff.  There's a potential for a buffer overflow if `frame-&gt;getDMABuffer()` or `frame-&gt;getPtrBuffer()` is not validated before use (lines 307, 309, 324, 326).  The error handling is basic; more robust checks and error reporting could be added. No deadlocks or obvious Memory leaks are apparent, however,  the `std::shared_ptr` usage is good practice. A potential bug exists if `initCameraParams` or `startCameraStream` fails (lines 185-193). The failure should be handled more gracefully, perhaps by attempting to recover or providing more specific error information.</t>
+  </si>
+  <si>
+    <t>No exception handling, deadlock issues, or Memory leaks are apparent in the header. However, potential issues will depend on the source code implementation.</t>
+  </si>
+  <si>
+    <t>Correct implementation: The code appears to parse CAN data and forward it. However, the timer handling (lines 294-367) is unclear and  needs further review to ensure correct functionality and prevent race conditions or Memory leaks.</t>
+  </si>
+  <si>
+    <t>Memory leaks:  Significant Memory leaks in `send...` functions due to lack of `free(message-&gt;data)` in the `else` blocks (lines 67, 108, 142, etc.).  This is a critical issue.</t>
+  </si>
+  <si>
+    <t>[Overall Score]: 5/10  The functionality is implemented, but serious memory management flaws and code duplication severely impact quality.  Addressing the Memory leaks is critical before deployment.</t>
+  </si>
+  <si>
+    <t>Memory leaks are possible if `std::shared_ptr&lt;CameraInfo&gt;` (line 91) are not properly managed.  Careful attention to resource management is required.</t>
+  </si>
+  <si>
+    <t>Memory leaks:  `malloc` is used without corresponding `free` in multiple places (e.g., `setMirroringMode`, `sendGearState`, `sendViewState`, `sendBvmState`).  Smart pointers should be used.</t>
+  </si>
+  <si>
+    <t>The header file only declares methods; no implementation is provided.  This makes assessing functionality correctness difficult.  Missing error handling in the declared functions is a major concern.  Potential buffer overflows exist if `sendIVCMessage` and `sendIVCFile` do not properly handle input string and file sizes. A deadlock is possible if the `m_IvcEvtRecvThread` interacts with other threads in a non-thread-safe manner (implementation not shown).  Memory leaks are possible if the `std::shared_ptr&lt;IHIVCListener&gt;` (line 26) is not managed correctly.  The commented-out lines (e.g., 30, 57, 59) need to be reviewed for potential removal or proper inclusion.</t>
+  </si>
+  <si>
+    <t>Addressing the functionality concerns (error handling, potential for deadlocks and Memory leaks) is critical before this code can be considered production-ready.  The implementation should be thoroughly reviewed separately.</t>
+  </si>
+  <si>
+    <t>Memory leaks:  Potential Memory leaks could occur if memory allocated within the `diagThreadProc` function is not freed.</t>
+  </si>
+  <si>
+    <t>Memory leaks:  The `parse...` functions (lines 539-1269) allocate memory using `malloc` but don't always free it if errors occur. This results in Memory leaks. Use `std::unique_ptr` or `std::shared_ptr`.</t>
+  </si>
+  <si>
+    <t>There's significant potential for Memory leaks due to lack of `free()` calls for `message` and `diagState` in error cases (lines 77-110, 135-168).  Error handling is incomplete.</t>
+  </si>
+  <si>
+    <t>No deadlock or Memory leaks are apparent from the header file alone.</t>
+  </si>
+  <si>
+    <t>Potential Memory leaks:  `event_type *m_pMessage` (line 23) needs proper management;  its allocation and deallocation are not shown in this diff.  The same applies to the `evtHandle` (line 38).</t>
+  </si>
+  <si>
+    <t>Memory leaks:  Potential Memory leaks are possible if `camCore` (line 97) is not properly managed with shared pointers.</t>
+  </si>
+  <si>
+    <t>Memory leaks: The `free(m_pMessage-&gt;data)` calls in many functions are likely correct if data was dynamically allocated, but without full context, they are risky and should be reviewed carefully for potential Memory leaks.</t>
+  </si>
+  <si>
+    <t>Memory leaks:  The `Singleton::GetInstance()` (lines 26-35) allocates memory using `new` but lacks a mechanism to properly deallocate all allocated memory upon program termination. This results in a memory leak.  This should be addressed by using smart pointers or implementing a proper cleanup mechanism.</t>
+  </si>
+  <si>
+    <t>Memory leaks: Potential Memory leaks if the executed command's output isn't properly managed.</t>
+  </si>
+  <si>
+    <t>Memory leaks: No apparent Memory leaks.</t>
+  </si>
+  <si>
+    <t>The `Condition` class appears to correctly implement basic wait and signal functionality.  However, there's a critical missing element:  error handling.  `pthread_cond_init`, `pthread_cond_destroy`, `pthread_cond_wait`, and `pthread_cond_timedwait` can all return error codes that are ignored.  These need to be checked and handled appropriately (lines 14-16, 21, 26, 31, 37).  A potential deadlock could occur if the mutex isn't properly locked before calling `wait` or `timedwait`.  The code also lacks robust exception handling. No buffer overflows or Memory leaks are apparent.</t>
+  </si>
+  <si>
+    <t>No deadlock issues or Memory leaks are immediately apparent.</t>
+  </si>
+  <si>
+    <t>No obvious deadlocks or Memory leaks are immediately visible in this header file.  However, these could be present in the implementation files.</t>
+  </si>
+  <si>
+    <t>Memory leaks: Potential Memory leaks if pointer members (e.g., `pEvtMgr`, `pIvcIntf`) are not properly deallocated in the destructor (line 43). The destructor needs to explicitly release the allocated resources.</t>
+  </si>
+  <si>
+    <t>No deadlock issues or obvious Memory leaks are apparent.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        - Provide a Memory leaks.</t>
+  </si>
+  <si>
+    <t>No buffer overflows: Not applicable in this context.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows: A potential buffer overflow exists in `response_on_service_send` (lines 22-24).  The `payload` parameter lacks size checking, making it vulnerable to overflows if the provided `length` is incorrect.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  `get_param_result` (line 90) is a fixed-size array.  If `getCameraDTCfromDES` populates it beyond 10 elements, a buffer overflow could occur.</t>
+  </si>
+  <si>
+    <t>buffer overflows: No direct buffer overflows, but the lack of size checks in `sendMessage` within `cEventManager` (not shown) is a potential risk.</t>
+  </si>
+  <si>
+    <t>buffer overflows: Potential overflow in `isp_updater_status` struct (lines 1283-1289):  `char *isp_message` lacks size information.  A fixed-size array or a smart pointer should be used.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  A significant vulnerability exists. The `execute_command` function (line 9) lacks any mechanism to handle the size of the command's output.  A maliciously long command could easily lead to a buffer overflow.</t>
+  </si>
+  <si>
+    <t>buffer overflows: No obvious buffer overflows.</t>
+  </si>
+  <si>
+    <t>[Summary] The code implements CAN message handling for vehicle data.  While functional, it needs significant improvements in error handling, logging, and potential buffer overflows. Overall quality is 6/10.</t>
+  </si>
+  <si>
+    <t>deadlocks, Memory leaks: Not applicable.</t>
+  </si>
+  <si>
+    <t>deadlock issues:  Potential deadlock if `evtMgrEthCC-&gt;sendEvtMessage` blocks and another thread tries to acquire `mLock`.</t>
+  </si>
+  <si>
+    <t>deadlock Issues: Potential deadlocks are possible depending on the implementation of `cEventManager` and the interactions between `diagThreadProc` and other parts of the system.  This needs careful consideration in the implementation.</t>
+  </si>
+  <si>
+    <t>deadlock: Potential deadlock in `sendMessageWrapper` (lines 283-308) if `onAvailabileMapMutex_.unlock()` fails.  Consider using RAII techniques (e.g., `std::lock_guard`).</t>
+  </si>
+  <si>
+    <t>deadlock issues: Cannot be determined from the header file alone.</t>
+  </si>
+  <si>
+    <t>deadlocks are possible if the mutex (`m_evtMgrMutex`, line 20) and condition variable (`m_cond`, line 21) are not used correctly.  Careful synchronization is crucial.</t>
+  </si>
+  <si>
+    <t>deadlocks: Potential deadlock if `CameraCaptureManager` methods are not thread-safe and multiple threads access them concurrently.</t>
+  </si>
+  <si>
+    <t>deadlocks:  No obvious deadlocks.</t>
+  </si>
+  <si>
+    <t>deadlocks, Memory leaks:  Not directly observable in the provided code, but potential exists due to the `void* invoc` pointer used extensively across structs (lines 1058 onwards),  without a clear understanding of its usage, memory management risks arise.</t>
+  </si>
+  <si>
+    <t>The functionality is incomplete.  The constructor and destructor (lines 20, 21) are missing implementation.  The `wait`, `timedwait`, and `signal` methods (lines 23-25) are declared but not defined.  Error handling is completely absent.  Potential errors include:  `pthread_cond_t` and `pthread_condattr_t` initialization failures, and errors returned by `pthread_cond_wait` and `pthread_cond_signal`.  deadlocks are possible without careful usage of mutexes.  Memory leaks are not apparent in the header file itself, but could arise in the missing implementation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The Singleton implementation introduces several issues, primarily concerning memory management and potential deadlocks. While the intent is clear, the code needs significant improvements before it's production-ready.  </t>
+  </si>
+  <si>
+    <t>deadlock Potential: While `SVMMutex` is used, there's no guarantee the mutex is properly managed in all circumstances. If exceptions are thrown within the `T()` constructor, the `unlock()` call (line 33) may not be executed, leading to a deadlock.  Proper exception handling is needed.</t>
+  </si>
+  <si>
+    <t>deadlock Issues:  Potential deadlock if the executed command blocks indefinitely.</t>
+  </si>
+  <si>
+    <t>deadlocks: No apparent deadlocks.</t>
+  </si>
+  <si>
+    <t>potential bugs could stem from the lack of error checking and unclear units/ranges associated with several variables (lines 23-24, for example).  Add comments clarifying units and valid ranges.</t>
+  </si>
+  <si>
+    <t>potential bugs: The large number of enumerated values suggests a potential maintenance problem.  Adding new signals will become increasingly cumbersome.  Consider using a more scalable approach, like a database or configuration file to manage these signals.</t>
+  </si>
+  <si>
+    <t>potential bugs: The logic in `parseCLU_DisSpdVal` (lines 547-563) seems overly complicated.  A simpler approach should be possible.</t>
+  </si>
+  <si>
+    <t>potential bugs: The `captureProcess` function (line 723) is extremely large and complex, making it difficult to identify and fix bugs.  The logic is convoluted and needs refactoring into smaller, more manageable functions.</t>
+  </si>
+  <si>
+    <t>No format specifiers are present.  There are no apparent buffer overflows, deadlocks, Memory leaks, or exception handling issues within this header file (these would likely be found in the implementation).  The functionality appears correctly implemented, given the limited scope of a header file.  potential bugs might exist in the actual usage of these enums and structs, but cannot be determined from this code alone.</t>
+  </si>
+  <si>
+    <t>potential bugs/Errors: The `Singleton` template usage needs clarification.  What type is `Mutex`? The lack of error handling in the public methods is a major concern.</t>
+  </si>
+  <si>
+    <t>potential bugs:  The `parseGetStateDiag` function (line 763) initializes `diagState` to `nullptr`, but then uses it without checking for null (lines 794, 799, etc.).</t>
+  </si>
+  <si>
+    <t>potential bugs could arise if `DiagStatus_XXX` structs are not properly initialized or if memory management is not handled properly in the implementation (.cpp file).</t>
+  </si>
+  <si>
+    <t>potential bugs: The duplicate `sendCameraStreamErrorStatus` declaration (lines 21, 31) is a major bug. The large commented-out section suggests incomplete or outdated code that should be addressed.</t>
+  </si>
+  <si>
+    <t>[Summary] The patch introduces a new event manager class, but suffers from several issues regarding clarity, potential bugs, and lack of error handling.  Overall quality is moderate. Score: 5/10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a new file implementing camera event handling.  While functionality is largely contained within a large `#if 0` block, suggesting it's disabled or platform-specific, the code within this block presents several concerns regarding clarity, error handling, and potential bugs. Overall quality is low due to the conditionally compiled nature and numerous potential issues.  </t>
+  </si>
+  <si>
+    <t>potential bugs: The repeated DTC handling (lines 186-444) may have copy-paste errors leading to incorrect DTC setting or logic.  The conditional compilation makes verification difficult.</t>
+  </si>
+  <si>
+    <t>potential bugs: The `occurErrBitmap` function (lines 52-92) returns `evtMgr` on memory allocation failure, which is unexpected and potentially problematic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Summary] The patch introduces a large new file with a significant amount of event handling logic. While functionality appears largely implemented, several areas need improvement regarding code clarity, potential bugs, and memory management.  Overall quality is moderate.  </t>
+  </si>
+  <si>
+    <t>potential bugs: The `if (evtHandle == NULL)` check in `doDiagCheckCamera` (line 508) is good, but similar checks are missing in many other places where `evtHandle` is used.</t>
+  </si>
+  <si>
+    <t>potential bugs: The `#if 0` block (lines 267-284) suggests conditionally compiled code that might cause issues if the condition ever changes.  It also contains duplicated enum.</t>
+  </si>
+  <si>
+    <t>potential bugs: The `parse` function (line 12) could throw exceptions if the JSON data is invalid; this needs appropriate handling.  Similarly, accessing keys that don't exist in the JSON object could lead to runtime errors.</t>
+  </si>
+  <si>
+    <t>potential bugs/Errors: Failure to check the return value of the underlying system call (e.g., `system`, `popen`) will lead to undetected errors.</t>
+  </si>
+  <si>
+    <t>potential bugs include out-of-bounds access to `data` if input parameters are not validated properly.</t>
+  </si>
+  <si>
+    <t>potential bugs/Errors:  The `getDouble` function (lines 314-348) returns `false` on error instead of a clear error value like `NAN` or throwing an exception.  Similar issues exist in other functions that return primitive types.</t>
+  </si>
+  <si>
+    <t>potential bug:  The assertion in `readUnsignedBigEndian` and `readUnsignedLittleEndian` (lines 33, 47) might not catch all overflow conditions if `signal_size` is unusually large. Consider using a more robust size check.</t>
+  </si>
+  <si>
+    <t>potential bugs: `TCU_GearSlctDis` case in `procCVehicleHal_ECAN_Signal` (line 77) lacks implementation.</t>
+  </si>
+  <si>
+    <t>potential bugs or errors:  The lack of error handling in initialization functions is a significant potential source of bugs.</t>
+  </si>
+  <si>
+    <t>potential bug:  The `Initialize` function's return value is not checked in lines 53-56. If initialization fails, the code proceeds and might crash.</t>
+  </si>
+  <si>
+    <t>Potential buffer overflows:  The arrays `ADAS_CAM_SVM_CamExtTrnX`, `ADAS_CAM_SVM_CamExtTrnY`, etc. (lines 100-105) have a fixed size of 13.  If more than 13 values are ever needed, a buffer overflow will occur.  Dynamic allocation or a more flexible approach is needed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Incorrect format specifiers: None found in the provided diff.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential buffer overflows: A potential buffer overflow exists if `cameraConfigPath` (line 44) is not properly validated or sanitized before use.  The code needs explicit checks for buffer size to prevent this.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No format specifiers are present in the diff.  Potential buffer overflows are not directly apparent but could arise if the `name` field in `MCanSignal` (line 34) exceeds allocated memory.  exception handling is absent, which is a significant concern.  deadlocks and Memory leaks are not present in this header file itself (these are runtime issues).  The code seems to correctly implement the intended functionality based on the provided information, but thorough testing is crucial.  A potential bug could arise from the `Unknown` MCanMessageId if not handled appropriately in using code.</t>
+  </si>
+  <si>
+    <t>exception handling: Not applicable.</t>
+  </si>
+  <si>
+    <t>exception handling: No explicit exception handling.  Robustness could be improved by handling potential failures of `malloc` more gracefully.</t>
+  </si>
+  <si>
+    <t>exception handling is absent; the code needs robust error handling mechanisms.</t>
+  </si>
+  <si>
+    <t>exception handling is completely absent.  Error conditions from system calls (e.g., `fopen`, `fscanf`, `std::stoi`, `execute_command`) are not handled gracefully.</t>
+  </si>
+  <si>
+    <t>exception handling: No exception handling is implemented. This should be addressed in the implementation file.</t>
+  </si>
+  <si>
+    <t>exception handling:  No exception handling is present.  This is a critical omission.  `JsonParser::ByteToJsonValue`, `JsonParser::getString`, etc., should be checked for errors.</t>
+  </si>
+  <si>
+    <t>exception handling: No exception handling is visible in this header.  This needs to be addressed in the implementation.</t>
+  </si>
+  <si>
+    <t>exception handling is completely absent.  The code needs robust error handling to deal with potential failures (e.g., thread creation, queue operations).</t>
+  </si>
+  <si>
+    <t>exception handling: Absent.  Error handling relies on checking return codes, but no exceptions are caught. More robust exception handling is needed.</t>
+  </si>
+  <si>
+    <t>exception handling: Missing.  `malloc` failures are checked, but other potential errors are not handled.</t>
+  </si>
+  <si>
+    <t>exception handling: No exception handling is present.  This is a significant omission for a header file expected to be widely used.</t>
+  </si>
+  <si>
+    <t>There are no format specifiers in this header file.  Potential buffer overflows are not present in this header file, as it only declares the class.  The intended functionality (providing a mutex with an auto-locking mechanism) seems correct at a high level.  exception handling is not explicitly addressed; the `lock()` method should return an error code and be checked.  A deadlock is possible if the `lock()` method blocks indefinitely.  Memory leaks are not directly introduced here, but improper use of `Mutex` in the implementation could cause issues.  potential bugs could arise if `pthread_mutex_t` functions fail (these should be checked).</t>
+  </si>
+  <si>
+    <t>Incorrect exception handling:  Missing exception handling. The `new T()` operation could throw an exception, leaving the mutex locked.  A `try-catch` block should be added around the allocation and ensure the mutex is released in case of failure.</t>
+  </si>
+  <si>
+    <t>exception handling: No exception handling.</t>
+  </si>
+  <si>
+    <t>exception handling is completely absent;  the functions should handle potential errors (e.g., null pointers).</t>
+  </si>
+  <si>
+    <t>exception handling: exception handling is present, but relies heavily on `catch(const std::exception&amp; e)` which is too broad.  More specific exceptions should be caught where possible for better error reporting. Lines 17, 68, 69, 122, 180, 183, 227, 275, 308, 345, 382, and 437 should be reviewed.</t>
+  </si>
+  <si>
+    <t>exception handling is missing; the code doesn't handle potential errors from `static_cast` or other operations.</t>
+  </si>
+  <si>
+    <t>exception handling:  Completely absent.  `Initialize` functions should return error codes, or throw exceptions for failed initialization steps.  Error handling is a critical omission.</t>
+  </si>
+  <si>
+    <t>exception handling is improved with a more generic `catch (...)` block (lines 73-75), although it could provide more specific error messages.</t>
+  </si>
+  <si>
+    <t>deadlock issues: Potential deadlock could arise if the initialization functions themselves make blocking calls which could be interacting with other resources already locked. More details on the implementation needed for proper assessment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The potential buffer overflow in `cameraConfigPath` handling (line 44) presents a security vulnerability.  Unvalidated input could lead to crashes or security exploits.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential buffer overflow:  No direct buffer overflows are apparent, but the lack of input validation in `GetVariantValue` (lines 38-67) and `fscanf` are risky.  The `fscanf` function should be used with caution and ideally replaced by a safer alternative.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Memory leaks are mitigated by the explicit `delete` calls in the destructor (lines 77-87), but thorough testing is crucial.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Potential buffer overflows are possible if `start_bit` + `signal_size` exceeds the size of the input `data` array in functions like `readUnsignedBigEndian` (lines 31-41) and `readUnsignedLittleEndian` (lines 45-58). Input validation is needed.  Similar vulnerability in `writeUnsignedLittleEndian` (lines 66-74).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No exception handling: The code doesn't handle exceptions, which could be problematic in a production environment.  Consider adding exception handling mechanisms.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11752,7 +13771,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;■ &quot;@"/>
   </numFmts>
-  <fonts count="62">
+  <fonts count="66">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -12236,8 +14255,43 @@
       <charset val="129"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -12301,6 +14355,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -12487,7 +14553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -12787,6 +14853,20 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="65" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -24864,6 +26944,607 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>852</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>854</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="모서리가 둥근 사각형 설명선 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10648950" y="182784750"/>
+          <a:ext cx="2162175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101009"/>
+            <a:gd name="adj2" fmla="val 86890"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이해되지 않아</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>작업 안함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>822</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>824</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="모서리가 둥근 사각형 설명선 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8810625" y="176317275"/>
+          <a:ext cx="2162175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101009"/>
+            <a:gd name="adj2" fmla="val 86890"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이해되지 않아</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>작업 안함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>822</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>823</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="모서리가 둥근 사각형 설명선 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12344400" y="176212500"/>
+          <a:ext cx="2162175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -57837"/>
+            <a:gd name="adj2" fmla="val 282012"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>이해되지 않아</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>작업 안함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>775</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>777</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="모서리가 둥근 사각형 설명선 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12973050" y="166354125"/>
+          <a:ext cx="2162175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -101009"/>
+            <a:gd name="adj2" fmla="val 86890"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>snprintf() </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>로 변경함 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>두곳</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>783</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>785</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="모서리가 둥근 사각형 설명선 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7886700" y="168106725"/>
+          <a:ext cx="5276850" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -68790"/>
+            <a:gd name="adj2" fmla="val -161891"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>중복 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>case </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>문 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>동일한 로직</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>--&gt; </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>별도로 분리하여 로직이 중복되도록 해서 해결함</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>778</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>779</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="모서리가 둥근 사각형 설명선 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14144625" y="166887525"/>
+          <a:ext cx="2162175" cy="390525"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -360480"/>
+            <a:gd name="adj2" fmla="val 28353"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>try-catch</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>문 삽입으로 해결함</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -25157,7 +27838,11 @@
       <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
       <a:lstStyle>
         <a:defPPr algn="l">
-          <a:defRPr sz="1100"/>
+          <a:defRPr sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:defRPr>
         </a:defPPr>
       </a:lstStyle>
       <a:style>
@@ -25184,10 +27869,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -25589,6 +28274,21 @@
     <row r="67" spans="2:2">
       <c r="B67" t="s">
         <v>1739</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" t="s">
+        <v>1788</v>
       </c>
     </row>
   </sheetData>
@@ -25764,7 +28464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N74"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
@@ -26339,7 +29039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:S926"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
@@ -26433,7 +29133,7 @@
     </row>
     <row r="27" spans="2:4">
       <c r="D27" s="1" t="s">
-        <v>1778</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="31" spans="2:4">
@@ -29631,8 +32331,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T253"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -31441,6 +34141,3212 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A912"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A405" workbookViewId="0">
+      <selection activeCell="C409" sqref="C409"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>1802</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="167" customFormat="1">
+      <c r="A6" s="167" t="s">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="168" t="s">
+        <v>2194</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>1907</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="26.25">
+      <c r="A23" t="s">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" s="167" customFormat="1">
+      <c r="A26" s="167" t="s">
+        <v>1908</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="168" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>1911</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>1912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="26.25">
+      <c r="A41" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" s="167" customFormat="1">
+      <c r="A44" s="167" t="s">
+        <v>1913</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>1914</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="168" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>1917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>1918</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" ht="26.25">
+      <c r="A59" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" s="46" customFormat="1">
+      <c r="A62" s="46" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" ht="26.25">
+      <c r="A65" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>1919</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="168" t="s">
+        <v>2266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="168" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="168" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" t="s">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" s="46" customFormat="1">
+      <c r="A84" s="46" t="s">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" ht="26.25">
+      <c r="A86" t="s">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" t="s">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="168" t="s">
+        <v>2269</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" t="s">
+        <v>1922</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" t="s">
+        <v>1923</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" s="46" customFormat="1">
+      <c r="A102" s="46" t="s">
+        <v>1817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" t="s">
+        <v>1925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" t="s">
+        <v>1818</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" t="s">
+        <v>1926</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="168" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" t="s">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="168" t="s">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="168" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="168" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" t="s">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" t="s">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" ht="26.25">
+      <c r="A126" t="s">
+        <v>2165</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" s="46" customFormat="1">
+      <c r="A131" s="46" t="s">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" t="s">
+        <v>1928</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" t="s">
+        <v>1929</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" t="s">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="168" t="s">
+        <v>1931</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="168" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="168" t="s">
+        <v>2271</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="168" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="170" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="168" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1">
+      <c r="A146" t="s">
+        <v>1932</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1">
+      <c r="A148" t="s">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1">
+      <c r="A151" s="168" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" s="46" customFormat="1">
+      <c r="A154" s="46" t="s">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1">
+      <c r="A155" t="s">
+        <v>2166</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" ht="26.25">
+      <c r="A156" t="s">
+        <v>2167</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1">
+      <c r="A157" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1">
+      <c r="A159" t="s">
+        <v>1934</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1">
+      <c r="A160" t="s">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1">
+      <c r="A161" t="s">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1">
+      <c r="A162" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1">
+      <c r="A164" t="s">
+        <v>1824</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="168" t="s">
+        <v>1936</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1">
+      <c r="A166" s="168" t="s">
+        <v>2272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1">
+      <c r="A167" s="168" t="s">
+        <v>1825</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1">
+      <c r="A168" s="170" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1">
+      <c r="A169" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1">
+      <c r="A171" t="s">
+        <v>1938</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1">
+      <c r="A172" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1">
+      <c r="A174" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" s="46" customFormat="1">
+      <c r="A176" s="46" t="s">
+        <v>1940</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1">
+      <c r="A177" t="s">
+        <v>2168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" ht="26.25">
+      <c r="A178" t="s">
+        <v>2169</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1">
+      <c r="A179" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1">
+      <c r="A181" t="s">
+        <v>1941</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1">
+      <c r="A182" t="s">
+        <v>1942</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1">
+      <c r="A183" t="s">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1">
+      <c r="A184" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1">
+      <c r="A186" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1">
+      <c r="A187" s="168" t="s">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1">
+      <c r="A188" s="168" t="s">
+        <v>2273</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1">
+      <c r="A189" s="168" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1">
+      <c r="A190" s="170" t="s">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1">
+      <c r="A191" s="168" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1">
+      <c r="A192" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1">
+      <c r="A194" t="s">
+        <v>1947</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1">
+      <c r="A195" t="s">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1">
+      <c r="A196" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1">
+      <c r="A198" t="s">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" s="46" customFormat="1">
+      <c r="A199" s="46" t="s">
+        <v>1950</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1">
+      <c r="A200" t="s">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1">
+      <c r="A202" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1">
+      <c r="A203" t="s">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1">
+      <c r="A205" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1">
+      <c r="A206" s="168" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1">
+      <c r="A208" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1">
+      <c r="A209" t="s">
+        <v>1953</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1">
+      <c r="A211" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1">
+      <c r="A212" t="s">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" ht="26.25">
+      <c r="A214" t="s">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1">
+      <c r="A216" t="s">
+        <v>2193</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1">
+      <c r="A217" s="168" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" s="46" customFormat="1">
+      <c r="A219" s="46" t="s">
+        <v>1828</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1">
+      <c r="A221" t="s">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1">
+      <c r="A223" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1">
+      <c r="A224" t="s">
+        <v>1956</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1">
+      <c r="A226" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1">
+      <c r="A227" s="168" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1">
+      <c r="A229" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1">
+      <c r="A230" t="s">
+        <v>1957</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1">
+      <c r="A232" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1">
+      <c r="A233" t="s">
+        <v>1958</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" ht="26.25">
+      <c r="A235" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1">
+      <c r="A237" t="s">
+        <v>1959</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" s="46" customFormat="1">
+      <c r="A240" s="46" t="s">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" ht="26.25">
+      <c r="A241" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1">
+      <c r="A243" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1">
+      <c r="A244" t="s">
+        <v>1961</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1">
+      <c r="A246" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1">
+      <c r="A248" t="s">
+        <v>1962</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1">
+      <c r="A249" s="168" t="s">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1">
+      <c r="A250" s="168" t="s">
+        <v>2274</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1">
+      <c r="A251" s="168" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="170" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1">
+      <c r="A253" s="168" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1">
+      <c r="A254" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1">
+      <c r="A255" t="s">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1">
+      <c r="A257" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1">
+      <c r="A258" s="168" t="s">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" s="46" customFormat="1">
+      <c r="A261" s="46" t="s">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1">
+      <c r="A262" t="s">
+        <v>1966</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1">
+      <c r="A264" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1">
+      <c r="A266" t="s">
+        <v>1967</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1">
+      <c r="A267" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1">
+      <c r="A268" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1">
+      <c r="A269" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1">
+      <c r="A271" t="s">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1">
+      <c r="A272" s="168" t="s">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1">
+      <c r="A273" t="s">
+        <v>1972</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1">
+      <c r="A274" s="168" t="s">
+        <v>2275</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1">
+      <c r="A275" s="168" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1">
+      <c r="A276" s="170" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1">
+      <c r="A277" s="168" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1">
+      <c r="A278" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1">
+      <c r="A280" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1">
+      <c r="A281" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1">
+      <c r="A283" t="s">
+        <v>1973</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" ht="26.25">
+      <c r="A285" t="s">
+        <v>2173</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" s="46" customFormat="1">
+      <c r="A288" s="46" t="s">
+        <v>1974</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" ht="26.25">
+      <c r="A289" t="s">
+        <v>2174</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1">
+      <c r="A291" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1">
+      <c r="A293" t="s">
+        <v>1975</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1">
+      <c r="A294" s="168" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1">
+      <c r="A295" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1">
+      <c r="A296" t="s">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1">
+      <c r="A297" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1">
+      <c r="A299" s="168" t="s">
+        <v>1978</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1">
+      <c r="A300" s="168" t="s">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1">
+      <c r="A301" t="s">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1">
+      <c r="A302" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1">
+      <c r="A304" t="s">
+        <v>1831</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1">
+      <c r="A305" t="s">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1">
+      <c r="A306" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1">
+      <c r="A308" t="s">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" s="46" customFormat="1">
+      <c r="A310" s="46" t="s">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1">
+      <c r="A311" t="s">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1">
+      <c r="A313" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1">
+      <c r="A315" t="s">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1">
+      <c r="A316" t="s">
+        <v>1833</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1">
+      <c r="A317" t="s">
+        <v>1834</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1">
+      <c r="A318" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1">
+      <c r="A320" t="s">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1">
+      <c r="A321" s="168" t="s">
+        <v>1984</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1">
+      <c r="A322" t="s">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1">
+      <c r="A323" s="168" t="s">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1">
+      <c r="A324" s="168" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1">
+      <c r="A325" s="168" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1">
+      <c r="A326" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1">
+      <c r="A328" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1">
+      <c r="A329" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1">
+      <c r="A331" s="168" t="s">
+        <v>1837</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" ht="26.25">
+      <c r="A332" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1">
+      <c r="A334" s="168" t="s">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" s="46" customFormat="1">
+      <c r="A337" s="46" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1">
+      <c r="A339" t="s">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" ht="26.25">
+      <c r="A340" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1">
+      <c r="A341" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1">
+      <c r="A343" t="s">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1">
+      <c r="A344" t="s">
+        <v>1839</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1">
+      <c r="A345" t="s">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1">
+      <c r="A346" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1">
+      <c r="A348" t="s">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1">
+      <c r="A349" s="168" t="s">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1">
+      <c r="A350" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1">
+      <c r="A351" s="168" t="s">
+        <v>2276</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1">
+      <c r="A352" s="168" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1">
+      <c r="A353" s="168" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1">
+      <c r="A354" s="168" t="s">
+        <v>2250</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1">
+      <c r="A355" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1">
+      <c r="A357" t="s">
+        <v>1843</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1">
+      <c r="A358" t="s">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1">
+      <c r="A359" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" t="s">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1">
+      <c r="A362" t="s">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" s="46" customFormat="1">
+      <c r="A364" s="46" t="s">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1">
+      <c r="A365" s="168" t="s">
+        <v>2251</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1">
+      <c r="A367" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1">
+      <c r="A369" t="s">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1">
+      <c r="A370" t="s">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1">
+      <c r="A371" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1">
+      <c r="A372" t="s">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1">
+      <c r="A373" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1">
+      <c r="A375" t="s">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1">
+      <c r="A376" s="168" t="s">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1">
+      <c r="A377" s="168" t="s">
+        <v>2277</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1">
+      <c r="A378" s="168" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1">
+      <c r="A379" s="168" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1">
+      <c r="A380" s="168" t="s">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1">
+      <c r="A381" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1">
+      <c r="A383" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1">
+      <c r="A384" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1">
+      <c r="A386" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="388" spans="1:1" s="46" customFormat="1">
+      <c r="A388" s="46" t="s">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1">
+      <c r="A389" s="168" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" ht="26.25">
+      <c r="A390" t="s">
+        <v>2178</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1">
+      <c r="A391" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1">
+      <c r="A393" t="s">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="394" spans="1:1">
+      <c r="A394" t="s">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1">
+      <c r="A395" t="s">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1">
+      <c r="A396" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1">
+      <c r="A398" t="s">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1">
+      <c r="A399" s="168" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1">
+      <c r="A400" t="s">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:1">
+      <c r="A401" s="168" t="s">
+        <v>2278</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1">
+      <c r="A402" s="168" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1">
+      <c r="A403" s="168" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1">
+      <c r="A404" s="168" t="s">
+        <v>2253</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1">
+      <c r="A405" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="407" spans="1:1">
+      <c r="A407" t="s">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1">
+      <c r="A408" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1">
+      <c r="A410" t="s">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" s="46" customFormat="1">
+      <c r="A412" s="46" t="s">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="413" spans="1:1">
+      <c r="A413" t="s">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1">
+      <c r="A415" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1">
+      <c r="A417" t="s">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1">
+      <c r="A418" t="s">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="419" spans="1:1">
+      <c r="A419" t="s">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1">
+      <c r="A420" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1">
+      <c r="A422" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1">
+      <c r="A423" s="168" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1">
+      <c r="A424" s="168" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1">
+      <c r="A425" s="168" t="s">
+        <v>2279</v>
+      </c>
+    </row>
+    <row r="426" spans="1:1">
+      <c r="A426" s="168" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1">
+      <c r="A427" s="168" t="s">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1">
+      <c r="A428" s="168" t="s">
+        <v>2254</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1">
+      <c r="A429" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1">
+      <c r="A431" t="s">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="432" spans="1:1">
+      <c r="A432" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1">
+      <c r="A434" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" ht="26.25">
+      <c r="A436" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="438" spans="1:1">
+      <c r="A438" t="s">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" s="46" customFormat="1">
+      <c r="A441" s="46" t="s">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1">
+      <c r="A442" s="168" t="s">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" ht="26.25">
+      <c r="A443" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="444" spans="1:1">
+      <c r="A444" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1">
+      <c r="A446" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1">
+      <c r="A447" t="s">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1">
+      <c r="A448" t="s">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1">
+      <c r="A449" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1">
+      <c r="A451" t="s">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1">
+      <c r="A452" s="168" t="s">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1">
+      <c r="A453" t="s">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1">
+      <c r="A454" s="168" t="s">
+        <v>2210</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1">
+      <c r="A455" s="168" t="s">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="456" spans="1:1">
+      <c r="A456" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1">
+      <c r="A458" t="s">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1">
+      <c r="A459" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1">
+      <c r="A461" t="s">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" s="46" customFormat="1">
+      <c r="A463" s="46" t="s">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1">
+      <c r="A464" t="s">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1">
+      <c r="A466" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="468" spans="1:1">
+      <c r="A468" t="s">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1">
+      <c r="A469" t="s">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1">
+      <c r="A470" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1">
+      <c r="A471" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1">
+      <c r="A473" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="474" spans="1:1">
+      <c r="A474" s="168" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1">
+      <c r="A475" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1">
+      <c r="A476" s="168" t="s">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1">
+      <c r="A477" s="168" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1">
+      <c r="A478" s="168" t="s">
+        <v>2257</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1">
+      <c r="A479" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1">
+      <c r="A481" t="s">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1">
+      <c r="A482" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1">
+      <c r="A484" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" ht="26.25">
+      <c r="A486" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" s="46" customFormat="1">
+      <c r="A489" s="46" t="s">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" ht="26.25">
+      <c r="A491" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1">
+      <c r="A493" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1">
+      <c r="A495" t="s">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1">
+      <c r="A496" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1">
+      <c r="A497" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1">
+      <c r="A499" t="s">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="500" spans="1:1">
+      <c r="A500" s="168" t="s">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1">
+      <c r="A501" t="s">
+        <v>1862</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1">
+      <c r="A502" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1">
+      <c r="A504" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1">
+      <c r="A505" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1">
+      <c r="A507" t="s">
+        <v>2027</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" s="46" customFormat="1">
+      <c r="A508" s="46" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1">
+      <c r="A509" t="s">
+        <v>2029</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1">
+      <c r="A511" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="512" spans="1:1">
+      <c r="A512" t="s">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1">
+      <c r="A514" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1">
+      <c r="A515" s="168" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1">
+      <c r="A517" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="518" spans="1:1">
+      <c r="A518" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1">
+      <c r="A520" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1">
+      <c r="A521" t="s">
+        <v>2032</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" ht="26.25">
+      <c r="A523" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1">
+      <c r="A525" s="168" t="s">
+        <v>2033</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" s="46" customFormat="1">
+      <c r="A528" s="46" t="s">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="530" spans="1:1">
+      <c r="A530" t="s">
+        <v>2034</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1">
+      <c r="A532" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1">
+      <c r="A533" t="s">
+        <v>2035</v>
+      </c>
+    </row>
+    <row r="536" spans="1:1">
+      <c r="A536" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1">
+      <c r="A537" s="168" t="s">
+        <v>2281</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1">
+      <c r="A540" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1">
+      <c r="A541" t="s">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1">
+      <c r="A544" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1">
+      <c r="A545" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" ht="26.25">
+      <c r="A548" t="s">
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1">
+      <c r="A550" t="s">
+        <v>2038</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" s="46" customFormat="1">
+      <c r="A553" s="46" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="555" spans="1:1">
+      <c r="A555" s="168" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" ht="26.25">
+      <c r="A556" t="s">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1">
+      <c r="A557" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1">
+      <c r="A559" t="s">
+        <v>2039</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1">
+      <c r="A560" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1">
+      <c r="A562" s="168" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1">
+      <c r="A563" s="168" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1">
+      <c r="A564" s="168" t="s">
+        <v>2282</v>
+      </c>
+    </row>
+    <row r="565" spans="1:1">
+      <c r="A565" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1">
+      <c r="A567" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1">
+      <c r="A568" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1">
+      <c r="A570" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="571" spans="1:1" s="46" customFormat="1">
+      <c r="A571" s="46" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1">
+      <c r="A572" t="s">
+        <v>2041</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1">
+      <c r="A574" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1">
+      <c r="A575" t="s">
+        <v>2042</v>
+      </c>
+    </row>
+    <row r="577" spans="1:1">
+      <c r="A577" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="579" spans="1:1">
+      <c r="A579" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="580" spans="1:1">
+      <c r="A580" s="168" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="581" spans="1:1">
+      <c r="A581" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="582" spans="1:1">
+      <c r="A582" s="168" t="s">
+        <v>2283</v>
+      </c>
+    </row>
+    <row r="583" spans="1:1">
+      <c r="A583" s="168" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="584" spans="1:1">
+      <c r="A584" s="168" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="585" spans="1:1">
+      <c r="A585" s="168" t="s">
+        <v>2259</v>
+      </c>
+    </row>
+    <row r="587" spans="1:1">
+      <c r="A587" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="588" spans="1:1">
+      <c r="A588" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="590" spans="1:1">
+      <c r="A590" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="591" spans="1:1">
+      <c r="A591" s="168" t="s">
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="594" spans="1:1" ht="26.25">
+      <c r="A594" t="s">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="596" spans="1:1">
+      <c r="A596" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="597" spans="1:1">
+      <c r="A597" t="s">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="598" spans="1:1">
+      <c r="A598" t="s">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="599" spans="1:1">
+      <c r="A599" s="168" t="s">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="600" spans="1:1">
+      <c r="A600" s="168" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="601" spans="1:1">
+      <c r="A601" t="s">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="604" spans="1:1" s="46" customFormat="1">
+      <c r="A604" s="46" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="606" spans="1:1" ht="26.25">
+      <c r="A606" t="s">
+        <v>2186</v>
+      </c>
+    </row>
+    <row r="608" spans="1:1">
+      <c r="A608" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="610" spans="1:1">
+      <c r="A610" t="s">
+        <v>2051</v>
+      </c>
+    </row>
+    <row r="611" spans="1:1">
+      <c r="A611" t="s">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="612" spans="1:1">
+      <c r="A612" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="614" spans="1:1">
+      <c r="A614" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="615" spans="1:1">
+      <c r="A615" s="168" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="616" spans="1:1">
+      <c r="A616" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="617" spans="1:1">
+      <c r="A617" s="168" t="s">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="618" spans="1:1">
+      <c r="A618" s="168" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="619" spans="1:1">
+      <c r="A619" s="168" t="s">
+        <v>2260</v>
+      </c>
+    </row>
+    <row r="620" spans="1:1">
+      <c r="A620" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="622" spans="1:1">
+      <c r="A622" t="s">
+        <v>2053</v>
+      </c>
+    </row>
+    <row r="623" spans="1:1">
+      <c r="A623" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="625" spans="1:1">
+      <c r="A625" s="168" t="s">
+        <v>2054</v>
+      </c>
+    </row>
+    <row r="626" spans="1:1" s="46" customFormat="1">
+      <c r="A626" s="46" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="628" spans="1:1" ht="26.25">
+      <c r="A628" t="s">
+        <v>2187</v>
+      </c>
+    </row>
+    <row r="630" spans="1:1">
+      <c r="A630" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="632" spans="1:1">
+      <c r="A632" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="633" spans="1:1">
+      <c r="A633" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="634" spans="1:1">
+      <c r="A634" t="s">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="635" spans="1:1">
+      <c r="A635" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="637" spans="1:1">
+      <c r="A637" t="s">
+        <v>2056</v>
+      </c>
+    </row>
+    <row r="638" spans="1:1">
+      <c r="A638" s="168" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="639" spans="1:1">
+      <c r="A639" t="s">
+        <v>2057</v>
+      </c>
+    </row>
+    <row r="640" spans="1:1">
+      <c r="A640" s="168" t="s">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="641" spans="1:1">
+      <c r="A641" s="168" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="642" spans="1:1">
+      <c r="A642" s="168" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="643" spans="1:1">
+      <c r="A643" s="168" t="s">
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="645" spans="1:1">
+      <c r="A645" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="647" spans="1:1">
+      <c r="A647" t="s">
+        <v>2058</v>
+      </c>
+    </row>
+    <row r="648" spans="1:1">
+      <c r="A648" t="s">
+        <v>2059</v>
+      </c>
+    </row>
+    <row r="649" spans="1:1">
+      <c r="A649" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="651" spans="1:1">
+      <c r="A651" t="s">
+        <v>2060</v>
+      </c>
+    </row>
+    <row r="653" spans="1:1" s="46" customFormat="1">
+      <c r="A653" s="46" t="s">
+        <v>2061</v>
+      </c>
+    </row>
+    <row r="654" spans="1:1">
+      <c r="A654" t="s">
+        <v>2062</v>
+      </c>
+    </row>
+    <row r="656" spans="1:1">
+      <c r="A656" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="657" spans="1:1">
+      <c r="A657" t="s">
+        <v>2063</v>
+      </c>
+    </row>
+    <row r="659" spans="1:1">
+      <c r="A659" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="660" spans="1:1">
+      <c r="A660" s="168" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="662" spans="1:1">
+      <c r="A662" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="663" spans="1:1">
+      <c r="A663" t="s">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="665" spans="1:1">
+      <c r="A665" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="666" spans="1:1">
+      <c r="A666" t="s">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="668" spans="1:1" ht="26.25">
+      <c r="A668" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="670" spans="1:1">
+      <c r="A670" t="s">
+        <v>2045</v>
+      </c>
+    </row>
+    <row r="671" spans="1:1">
+      <c r="A671" t="s">
+        <v>2066</v>
+      </c>
+    </row>
+    <row r="672" spans="1:1">
+      <c r="A672" s="168" t="s">
+        <v>2067</v>
+      </c>
+    </row>
+    <row r="673" spans="1:1">
+      <c r="A673" t="s">
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="674" spans="1:1">
+      <c r="A674" t="s">
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="677" spans="1:1" s="46" customFormat="1">
+      <c r="A677" s="46" t="s">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="678" spans="1:1">
+      <c r="A678" t="s">
+        <v>2071</v>
+      </c>
+    </row>
+    <row r="680" spans="1:1">
+      <c r="A680" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="681" spans="1:1">
+      <c r="A681" t="s">
+        <v>2072</v>
+      </c>
+    </row>
+    <row r="683" spans="1:1">
+      <c r="A683" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="684" spans="1:1">
+      <c r="A684" t="s">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="686" spans="1:1">
+      <c r="A686" t="s">
+        <v>2074</v>
+      </c>
+    </row>
+    <row r="687" spans="1:1">
+      <c r="A687" s="168" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="688" spans="1:1">
+      <c r="A688" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="689" spans="1:1">
+      <c r="A689" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="691" spans="1:1">
+      <c r="A691" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="692" spans="1:1">
+      <c r="A692" t="s">
+        <v>2076</v>
+      </c>
+    </row>
+    <row r="694" spans="1:1" ht="26.25">
+      <c r="A694" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="696" spans="1:1">
+      <c r="A696" s="168" t="s">
+        <v>2077</v>
+      </c>
+    </row>
+    <row r="699" spans="1:1" s="46" customFormat="1">
+      <c r="A699" s="46" t="s">
+        <v>2078</v>
+      </c>
+    </row>
+    <row r="700" spans="1:1" ht="26.25">
+      <c r="A700" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="702" spans="1:1">
+      <c r="A702" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="704" spans="1:1">
+      <c r="A704" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="705" spans="1:1">
+      <c r="A705" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="706" spans="1:1">
+      <c r="A706" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="708" spans="1:1">
+      <c r="A708" s="168" t="s">
+        <v>2079</v>
+      </c>
+    </row>
+    <row r="709" spans="1:1">
+      <c r="A709" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="710" spans="1:1">
+      <c r="A710" s="168" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="711" spans="1:1">
+      <c r="A711" t="s">
+        <v>2081</v>
+      </c>
+    </row>
+    <row r="712" spans="1:1">
+      <c r="A712" s="168" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="713" spans="1:1">
+      <c r="A713" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="715" spans="1:1">
+      <c r="A715" t="s">
+        <v>2082</v>
+      </c>
+    </row>
+    <row r="716" spans="1:1">
+      <c r="A716" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="718" spans="1:1">
+      <c r="A718" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="720" spans="1:1" s="46" customFormat="1">
+      <c r="A720" s="46" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="722" spans="1:1" ht="26.25">
+      <c r="A722" t="s">
+        <v>2190</v>
+      </c>
+    </row>
+    <row r="724" spans="1:1">
+      <c r="A724" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="726" spans="1:1">
+      <c r="A726" t="s">
+        <v>2083</v>
+      </c>
+    </row>
+    <row r="727" spans="1:1">
+      <c r="A727" t="s">
+        <v>2084</v>
+      </c>
+    </row>
+    <row r="728" spans="1:1">
+      <c r="A728" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="730" spans="1:1">
+      <c r="A730" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="731" spans="1:1">
+      <c r="A731" s="168" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="732" spans="1:1">
+      <c r="A732" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="733" spans="1:1">
+      <c r="A733" s="168" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="734" spans="1:1">
+      <c r="A734" s="168" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="735" spans="1:1">
+      <c r="A735" s="168" t="s">
+        <v>2262</v>
+      </c>
+    </row>
+    <row r="736" spans="1:1">
+      <c r="A736" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="738" spans="1:1">
+      <c r="A738" t="s">
+        <v>2085</v>
+      </c>
+    </row>
+    <row r="739" spans="1:1">
+      <c r="A739" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="741" spans="1:1">
+      <c r="A741" s="168" t="s">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="743" spans="1:1" s="46" customFormat="1">
+      <c r="A743" s="46" t="s">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="744" spans="1:1">
+      <c r="A744" s="168" t="s">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="746" spans="1:1">
+      <c r="A746" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="748" spans="1:1">
+      <c r="A748" t="s">
+        <v>2089</v>
+      </c>
+    </row>
+    <row r="749" spans="1:1">
+      <c r="A749" t="s">
+        <v>2090</v>
+      </c>
+    </row>
+    <row r="750" spans="1:1">
+      <c r="A750" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="751" spans="1:1">
+      <c r="A751" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="753" spans="1:1">
+      <c r="A753" s="168" t="s">
+        <v>2091</v>
+      </c>
+    </row>
+    <row r="754" spans="1:1">
+      <c r="A754" t="s">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="755" spans="1:1">
+      <c r="A755" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="756" spans="1:1">
+      <c r="A756" s="168" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="757" spans="1:1">
+      <c r="A757" t="s">
+        <v>1937</v>
+      </c>
+    </row>
+    <row r="759" spans="1:1">
+      <c r="A759" t="s">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="760" spans="1:1">
+      <c r="A760" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="762" spans="1:1">
+      <c r="A762" s="168" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="764" spans="1:1" ht="26.25">
+      <c r="A764" t="s">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="766" spans="1:1">
+      <c r="A766" s="168" t="s">
+        <v>2094</v>
+      </c>
+    </row>
+    <row r="769" spans="1:1" s="46" customFormat="1">
+      <c r="A769" s="46" t="s">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="770" spans="1:1">
+      <c r="A770" s="168" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="772" spans="1:1">
+      <c r="A772" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="774" spans="1:1">
+      <c r="A774" t="s">
+        <v>2096</v>
+      </c>
+    </row>
+    <row r="775" spans="1:1">
+      <c r="A775" t="s">
+        <v>2097</v>
+      </c>
+    </row>
+    <row r="776" spans="1:1">
+      <c r="A776" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="778" spans="1:1">
+      <c r="A778" t="s">
+        <v>2098</v>
+      </c>
+    </row>
+    <row r="779" spans="1:1">
+      <c r="A779" s="168" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="780" spans="1:1">
+      <c r="A780" s="168" t="s">
+        <v>2286</v>
+      </c>
+    </row>
+    <row r="781" spans="1:1">
+      <c r="A781" s="168" t="s">
+        <v>2099</v>
+      </c>
+    </row>
+    <row r="782" spans="1:1">
+      <c r="A782" s="168" t="s">
+        <v>2263</v>
+      </c>
+    </row>
+    <row r="783" spans="1:1">
+      <c r="A783" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="785" spans="1:1">
+      <c r="A785" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="786" spans="1:1">
+      <c r="A786" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="788" spans="1:1">
+      <c r="A788" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="790" spans="1:1" s="46" customFormat="1">
+      <c r="A790" s="46" t="s">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="791" spans="1:1">
+      <c r="A791" t="s">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="793" spans="1:1">
+      <c r="A793" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="795" spans="1:1">
+      <c r="A795" t="s">
+        <v>2102</v>
+      </c>
+    </row>
+    <row r="796" spans="1:1">
+      <c r="A796" t="s">
+        <v>2103</v>
+      </c>
+    </row>
+    <row r="797" spans="1:1">
+      <c r="A797" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="798" spans="1:1">
+      <c r="A798" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="800" spans="1:1">
+      <c r="A800" t="s">
+        <v>2104</v>
+      </c>
+    </row>
+    <row r="801" spans="1:1">
+      <c r="A801" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="802" spans="1:1">
+      <c r="A802" t="s">
+        <v>1895</v>
+      </c>
+    </row>
+    <row r="803" spans="1:1">
+      <c r="A803" s="168" t="s">
+        <v>2291</v>
+      </c>
+    </row>
+    <row r="804" spans="1:1">
+      <c r="A804" s="168" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="805" spans="1:1">
+      <c r="A805" t="s">
+        <v>1896</v>
+      </c>
+    </row>
+    <row r="806" spans="1:1">
+      <c r="A806" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="808" spans="1:1">
+      <c r="A808" t="s">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="809" spans="1:1">
+      <c r="A809" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="811" spans="1:1">
+      <c r="A811" t="s">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="813" spans="1:1" ht="26.25">
+      <c r="A813" t="s">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="816" spans="1:1" s="46" customFormat="1">
+      <c r="A816" s="46" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="818" spans="1:1">
+      <c r="A818" t="s">
+        <v>2105</v>
+      </c>
+    </row>
+    <row r="820" spans="1:1">
+      <c r="A820" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="821" spans="1:1">
+      <c r="A821" t="s">
+        <v>2106</v>
+      </c>
+    </row>
+    <row r="823" spans="1:1">
+      <c r="A823" t="s">
+        <v>1943</v>
+      </c>
+    </row>
+    <row r="825" spans="1:1">
+      <c r="A825" t="s">
+        <v>2267</v>
+      </c>
+    </row>
+    <row r="826" spans="1:1" s="175" customFormat="1">
+      <c r="A826" s="173" t="s">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="827" spans="1:1">
+      <c r="A827" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="828" spans="1:1">
+      <c r="A828" s="168" t="s">
+        <v>2287</v>
+      </c>
+    </row>
+    <row r="829" spans="1:1" s="175" customFormat="1">
+      <c r="A829" s="173" t="s">
+        <v>2289</v>
+      </c>
+    </row>
+    <row r="830" spans="1:1">
+      <c r="A830" s="168" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="831" spans="1:1">
+      <c r="A831" s="168" t="s">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="833" spans="1:1">
+      <c r="A833" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="834" spans="1:1">
+      <c r="A834" t="s">
+        <v>2107</v>
+      </c>
+    </row>
+    <row r="836" spans="1:1">
+      <c r="A836" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="837" spans="1:1">
+      <c r="A837" s="168" t="s">
+        <v>2290</v>
+      </c>
+    </row>
+    <row r="840" spans="1:1" ht="26.25">
+      <c r="A840" t="s">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="842" spans="1:1" s="46" customFormat="1">
+      <c r="A842" s="46" t="s">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="843" spans="1:1" s="171" customFormat="1" ht="26.25">
+      <c r="A843" s="171" t="s">
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="844" spans="1:1" s="171" customFormat="1"/>
+    <row r="845" spans="1:1" s="171" customFormat="1">
+      <c r="A845" s="171" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="846" spans="1:1" s="171" customFormat="1">
+      <c r="A846" s="171" t="s">
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="847" spans="1:1" s="171" customFormat="1"/>
+    <row r="848" spans="1:1" s="171" customFormat="1">
+      <c r="A848" s="171" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="849" spans="1:1" s="171" customFormat="1"/>
+    <row r="850" spans="1:1" s="171" customFormat="1">
+      <c r="A850" s="171" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="851" spans="1:1" s="171" customFormat="1">
+      <c r="A851" s="172" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="852" spans="1:1" s="171" customFormat="1">
+      <c r="A852" s="171" t="s">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="853" spans="1:1" s="171" customFormat="1">
+      <c r="A853" s="172" t="s">
+        <v>2288</v>
+      </c>
+    </row>
+    <row r="854" spans="1:1" s="171" customFormat="1">
+      <c r="A854" s="172" t="s">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="855" spans="1:1" s="174" customFormat="1">
+      <c r="A855" s="173" t="s">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="856" spans="1:1" s="171" customFormat="1">
+      <c r="A856" s="171" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="857" spans="1:1" s="171" customFormat="1">
+      <c r="A857" s="171" t="s">
+        <v>2111</v>
+      </c>
+    </row>
+    <row r="859" spans="1:1">
+      <c r="A859" t="s">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="860" spans="1:1">
+      <c r="A860" t="s">
+        <v>2112</v>
+      </c>
+    </row>
+    <row r="863" spans="1:1">
+      <c r="A863" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="865" spans="1:1">
+      <c r="A865" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="866" spans="1:1">
+      <c r="A866" t="s">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="867" spans="1:1">
+      <c r="A867" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="868" spans="1:1">
+      <c r="A868" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="869" spans="1:1">
+      <c r="A869" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="870" spans="1:1">
+      <c r="A870" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="871" spans="1:1">
+      <c r="A871" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="872" spans="1:1">
+      <c r="A872" t="s">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="873" spans="1:1">
+      <c r="A873" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="874" spans="1:1">
+      <c r="A874" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="875" spans="1:1">
+      <c r="A875" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="876" spans="1:1">
+      <c r="A876" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="877" spans="1:1">
+      <c r="A877" t="s">
+        <v>2125</v>
+      </c>
+    </row>
+    <row r="878" spans="1:1">
+      <c r="A878" t="s">
+        <v>2126</v>
+      </c>
+    </row>
+    <row r="879" spans="1:1">
+      <c r="A879" t="s">
+        <v>2127</v>
+      </c>
+    </row>
+    <row r="880" spans="1:1">
+      <c r="A880" t="s">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="881" spans="1:1">
+      <c r="A881" t="s">
+        <v>2129</v>
+      </c>
+    </row>
+    <row r="882" spans="1:1">
+      <c r="A882" t="s">
+        <v>2130</v>
+      </c>
+    </row>
+    <row r="883" spans="1:1">
+      <c r="A883" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="884" spans="1:1">
+      <c r="A884" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="885" spans="1:1">
+      <c r="A885" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="886" spans="1:1">
+      <c r="A886" s="168" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="887" spans="1:1">
+      <c r="A887" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="888" spans="1:1">
+      <c r="A888" s="168" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="889" spans="1:1">
+      <c r="A889" s="168" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="890" spans="1:1">
+      <c r="A890" s="168" t="s">
+        <v>2219</v>
+      </c>
+    </row>
+    <row r="891" spans="1:1">
+      <c r="A891" s="168" t="s">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="892" spans="1:1">
+      <c r="A892" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="893" spans="1:1">
+      <c r="A893" t="s">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="894" spans="1:1">
+      <c r="A894" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="895" spans="1:1">
+      <c r="A895" t="s">
+        <v>2142</v>
+      </c>
+    </row>
+    <row r="896" spans="1:1">
+      <c r="A896" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="897" spans="1:1">
+      <c r="A897" t="s">
+        <v>2144</v>
+      </c>
+    </row>
+    <row r="898" spans="1:1">
+      <c r="A898" t="s">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="899" spans="1:1">
+      <c r="A899" t="s">
+        <v>2146</v>
+      </c>
+    </row>
+    <row r="900" spans="1:1">
+      <c r="A900" t="s">
+        <v>2147</v>
+      </c>
+    </row>
+    <row r="901" spans="1:1">
+      <c r="A901" t="s">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="902" spans="1:1">
+      <c r="A902" t="s">
+        <v>2149</v>
+      </c>
+    </row>
+    <row r="903" spans="1:1">
+      <c r="A903" t="s">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="904" spans="1:1">
+      <c r="A904" t="s">
+        <v>2151</v>
+      </c>
+    </row>
+    <row r="905" spans="1:1">
+      <c r="A905" t="s">
+        <v>2152</v>
+      </c>
+    </row>
+    <row r="906" spans="1:1">
+      <c r="A906" t="s">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="907" spans="1:1">
+      <c r="A907" t="s">
+        <v>2154</v>
+      </c>
+    </row>
+    <row r="908" spans="1:1">
+      <c r="A908" t="s">
+        <v>2155</v>
+      </c>
+    </row>
+    <row r="909" spans="1:1">
+      <c r="A909" t="s">
+        <v>2156</v>
+      </c>
+    </row>
+    <row r="910" spans="1:1">
+      <c r="A910" t="s">
+        <v>2157</v>
+      </c>
+    </row>
+    <row r="911" spans="1:1">
+      <c r="A911" t="s">
+        <v>2158</v>
+      </c>
+    </row>
+    <row r="912" spans="1:1">
+      <c r="A912" t="s">
+        <v>2159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
@@ -31928,10 +37834,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AA536"/>
+  <dimension ref="A1:AA569"/>
   <sheetViews>
     <sheetView topLeftCell="A521" workbookViewId="0">
-      <selection activeCell="G541" sqref="G541"/>
+      <selection activeCell="P548" sqref="P548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -35583,43 +41489,203 @@
       <c r="U526" s="146"/>
       <c r="V526" s="146"/>
     </row>
-    <row r="529" spans="1:2">
+    <row r="529" spans="1:3">
       <c r="A529" t="s">
         <v>1771</v>
       </c>
     </row>
-    <row r="530" spans="1:2">
+    <row r="530" spans="1:3">
       <c r="B530" t="s">
         <v>1772</v>
       </c>
     </row>
-    <row r="531" spans="1:2">
+    <row r="531" spans="1:3">
       <c r="B531" t="s">
         <v>1773</v>
       </c>
     </row>
-    <row r="532" spans="1:2">
+    <row r="532" spans="1:3">
       <c r="B532" t="s">
         <v>1774</v>
       </c>
     </row>
-    <row r="533" spans="1:2">
+    <row r="533" spans="1:3">
       <c r="B533" t="s">
         <v>1775</v>
       </c>
     </row>
-    <row r="534" spans="1:2">
+    <row r="534" spans="1:3">
       <c r="B534" t="s">
         <v>1776</v>
       </c>
     </row>
-    <row r="536" spans="1:2">
+    <row r="536" spans="1:3">
       <c r="B536" t="s">
-        <v>1777</v>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3">
+      <c r="B538" t="s">
+        <v>1792</v>
+      </c>
+      <c r="C538" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3">
+      <c r="B540" s="169" t="s">
+        <v>1789</v>
+      </c>
+      <c r="C540" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3">
+      <c r="B541" s="169"/>
+      <c r="C541" t="s">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3">
+      <c r="B542" s="169"/>
+      <c r="C542" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3">
+      <c r="B543" s="169"/>
+      <c r="C543" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3">
+      <c r="B544" s="169"/>
+      <c r="C544" t="s">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3">
+      <c r="B545" s="169"/>
+    </row>
+    <row r="546" spans="1:3">
+      <c r="B546" s="169"/>
+      <c r="C546" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3">
+      <c r="B547" s="169"/>
+      <c r="C547" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3">
+      <c r="B548" s="169"/>
+      <c r="C548" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3">
+      <c r="B549" s="169"/>
+      <c r="C549" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3">
+      <c r="B550" s="169"/>
+      <c r="C550" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3">
+      <c r="B551" s="166"/>
+    </row>
+    <row r="552" spans="1:3">
+      <c r="A552" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3">
+      <c r="B553" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3">
+      <c r="B554" t="s">
+        <v>1795</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3">
+      <c r="B555" t="s">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3">
+      <c r="B556" t="s">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3">
+      <c r="B557" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3">
+      <c r="B558" t="s">
+        <v>1796</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3">
+      <c r="A560" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="561" spans="2:3">
+      <c r="B561" t="s">
+        <v>1779</v>
+      </c>
+      <c r="C561" t="s">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="562" spans="2:3">
+      <c r="B562" t="s">
+        <v>1784</v>
+      </c>
+      <c r="C562" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="563" spans="2:3">
+      <c r="C563" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="564" spans="2:3">
+      <c r="C564" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="565" spans="2:3">
+      <c r="C565" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="568" spans="2:3">
+      <c r="B568" t="s">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="569" spans="2:3">
+      <c r="B569" t="s">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate link="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B540:B550"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="C70" r:id="rId1" display="http://collab.lge.com/main/display/CHEETAH/How+to+fill+out+Configuration+File"/>
